--- a/cbb_predict_raw.xlsx
+++ b/cbb_predict_raw.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT26"/>
+  <dimension ref="A1:AT43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,146 +666,148 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Georgia Southern</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>UCLA</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>Ohio State</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
-        <v>67.59999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="I2" t="n">
-        <v>840</v>
+        <v>1033</v>
       </c>
       <c r="J2" t="n">
-        <v>1926</v>
+        <v>2245</v>
       </c>
       <c r="K2" t="n">
-        <v>0.436</v>
+        <v>0.46</v>
       </c>
       <c r="L2" t="n">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>651</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.314</v>
+        <v>0.349</v>
       </c>
       <c r="O2" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="P2" t="n">
-        <v>539</v>
+        <v>616</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.731</v>
       </c>
       <c r="R2" t="n">
-        <v>325</v>
+        <v>418</v>
       </c>
       <c r="S2" t="n">
-        <v>840</v>
+        <v>889</v>
       </c>
       <c r="T2" t="n">
-        <v>1165</v>
+        <v>1307</v>
       </c>
       <c r="U2" t="n">
-        <v>343</v>
+        <v>538</v>
       </c>
       <c r="V2" t="n">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="W2" t="n">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="X2" t="n">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="Y2" t="n">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="Z2" t="n">
-        <v>2257</v>
+        <v>2743</v>
       </c>
       <c r="AA2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB2" t="n">
         <v>65.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>908</v>
+        <v>948</v>
       </c>
       <c r="AD2" t="n">
-        <v>2097</v>
+        <v>2052</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.433</v>
+        <v>0.462</v>
       </c>
       <c r="AF2" t="n">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>650</t>
         </is>
       </c>
       <c r="AH2" t="n">
-        <v>0.329</v>
+        <v>0.368</v>
       </c>
       <c r="AI2" t="n">
-        <v>455</v>
+        <v>403</v>
       </c>
       <c r="AJ2" t="n">
-        <v>643</v>
+        <v>545</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.708</v>
+        <v>0.739</v>
       </c>
       <c r="AL2" t="n">
-        <v>464</v>
+        <v>370</v>
       </c>
       <c r="AM2" t="n">
-        <v>918</v>
+        <v>887</v>
       </c>
       <c r="AN2" t="n">
-        <v>1382</v>
+        <v>1257</v>
       </c>
       <c r="AO2" t="n">
-        <v>601</v>
+        <v>410</v>
       </c>
       <c r="AP2" t="n">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="AQ2" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AR2" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="AS2" t="n">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="AT2" t="n">
-        <v>2547</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="3">
@@ -814,146 +816,146 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hofstra</t>
+          <t>Oral Roberts</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Duke</t>
+          <t>Kansas State</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
         <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>67.59999999999999</v>
+        <v>71.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1001</v>
+        <v>1058</v>
       </c>
       <c r="J3" t="n">
-        <v>2084</v>
+        <v>2231</v>
       </c>
       <c r="K3" t="n">
-        <v>0.48</v>
+        <v>0.474</v>
       </c>
       <c r="L3" t="n">
-        <v>303</v>
+        <v>375</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>1027</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O3" t="n">
-        <v>314</v>
+        <v>424</v>
       </c>
       <c r="P3" t="n">
-        <v>425</v>
+        <v>548</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.739</v>
+        <v>0.774</v>
       </c>
       <c r="R3" t="n">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="S3" t="n">
-        <v>910</v>
+        <v>975</v>
       </c>
       <c r="T3" t="n">
-        <v>1181</v>
+        <v>1288</v>
       </c>
       <c r="U3" t="n">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="V3" t="n">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="W3" t="n">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="X3" t="n">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="Y3" t="n">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="Z3" t="n">
-        <v>2619</v>
+        <v>2915</v>
       </c>
       <c r="AA3" t="n">
         <v>36</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.5</v>
+        <v>70.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>936</v>
+        <v>961</v>
       </c>
       <c r="AD3" t="n">
-        <v>2072</v>
+        <v>2083</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.452</v>
+        <v>0.461</v>
       </c>
       <c r="AF3" t="n">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>752</t>
         </is>
       </c>
       <c r="AH3" t="n">
-        <v>0.335</v>
+        <v>0.343</v>
       </c>
       <c r="AI3" t="n">
-        <v>475</v>
+        <v>562</v>
       </c>
       <c r="AJ3" t="n">
-        <v>620</v>
+        <v>751</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.766</v>
+        <v>0.748</v>
       </c>
       <c r="AL3" t="n">
-        <v>432</v>
+        <v>355</v>
       </c>
       <c r="AM3" t="n">
-        <v>960</v>
+        <v>892</v>
       </c>
       <c r="AN3" t="n">
-        <v>1392</v>
+        <v>1247</v>
       </c>
       <c r="AO3" t="n">
-        <v>526</v>
+        <v>611</v>
       </c>
       <c r="AP3" t="n">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="AQ3" t="n">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="AR3" t="n">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="AS3" t="n">
-        <v>549</v>
+        <v>644</v>
       </c>
       <c r="AT3" t="n">
-        <v>2592</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="4">
@@ -962,144 +964,146 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dartmouth</t>
+          <t>Evansville</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Albany (NY)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>15</v>
+      </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H4" t="n">
-        <v>70.8</v>
+        <v>69.8</v>
       </c>
       <c r="I4" t="n">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="J4" t="n">
-        <v>1626</v>
+        <v>1839</v>
       </c>
       <c r="K4" t="n">
-        <v>0.442</v>
+        <v>0.396</v>
       </c>
       <c r="L4" t="n">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>618</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.333</v>
+        <v>0.322</v>
       </c>
       <c r="O4" t="n">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="P4" t="n">
-        <v>475</v>
+        <v>540</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.699</v>
+        <v>0.63</v>
       </c>
       <c r="R4" t="n">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="S4" t="n">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="T4" t="n">
-        <v>976</v>
+        <v>1004</v>
       </c>
       <c r="U4" t="n">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="V4" t="n">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="W4" t="n">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="X4" t="n">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="Y4" t="n">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="Z4" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="AA4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AB4" t="n">
-        <v>67.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>726</v>
+        <v>994</v>
       </c>
       <c r="AD4" t="n">
-        <v>1755</v>
+        <v>2044</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.414</v>
+        <v>0.486</v>
       </c>
       <c r="AF4" t="n">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>544</t>
         </is>
       </c>
       <c r="AH4" t="n">
-        <v>0.327</v>
+        <v>0.368</v>
       </c>
       <c r="AI4" t="n">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="AJ4" t="n">
-        <v>550</v>
+        <v>602</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.722</v>
+        <v>0.711</v>
       </c>
       <c r="AL4" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AM4" t="n">
-        <v>716</v>
+        <v>929</v>
       </c>
       <c r="AN4" t="n">
-        <v>1033</v>
+        <v>1250</v>
       </c>
       <c r="AO4" t="n">
-        <v>363</v>
+        <v>533</v>
       </c>
       <c r="AP4" t="n">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="AR4" t="n">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="AS4" t="n">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="AT4" t="n">
-        <v>2086</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="5">
@@ -1108,144 +1112,144 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bryant</t>
+          <t>Morgan State</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Campbell</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="n">
-        <v>73</v>
+        <v>73.8</v>
       </c>
       <c r="I5" t="n">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="J5" t="n">
-        <v>1821</v>
+        <v>1911</v>
       </c>
       <c r="K5" t="n">
-        <v>0.466</v>
+        <v>0.452</v>
       </c>
       <c r="L5" t="n">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>559</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.34</v>
+        <v>0.369</v>
       </c>
       <c r="O5" t="n">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="P5" t="n">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.734</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="S5" t="n">
-        <v>861</v>
+        <v>712</v>
       </c>
       <c r="T5" t="n">
-        <v>1179</v>
+        <v>1074</v>
       </c>
       <c r="U5" t="n">
-        <v>403</v>
+        <v>479</v>
       </c>
       <c r="V5" t="n">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="W5" t="n">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="X5" t="n">
-        <v>402</v>
+        <v>500</v>
       </c>
       <c r="Y5" t="n">
-        <v>518</v>
+        <v>647</v>
       </c>
       <c r="Z5" t="n">
-        <v>2381</v>
+        <v>2323</v>
       </c>
       <c r="AA5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="n">
-        <v>69.90000000000001</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>1022</v>
+        <v>830</v>
       </c>
       <c r="AD5" t="n">
-        <v>2281</v>
+        <v>1777</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.448</v>
+        <v>0.467</v>
       </c>
       <c r="AF5" t="n">
-        <v>314</v>
+        <v>228</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>683</t>
         </is>
       </c>
       <c r="AH5" t="n">
-        <v>0.351</v>
+        <v>0.334</v>
       </c>
       <c r="AI5" t="n">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="AJ5" t="n">
-        <v>592</v>
+        <v>691</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.706</v>
+        <v>0.703</v>
       </c>
       <c r="AL5" t="n">
-        <v>403</v>
+        <v>267</v>
       </c>
       <c r="AM5" t="n">
-        <v>938</v>
+        <v>799</v>
       </c>
       <c r="AN5" t="n">
-        <v>1341</v>
+        <v>1066</v>
       </c>
       <c r="AO5" t="n">
-        <v>559</v>
+        <v>416</v>
       </c>
       <c r="AP5" t="n">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="AQ5" t="n">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="AR5" t="n">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="AS5" t="n">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="AT5" t="n">
-        <v>2776</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="6">
@@ -1254,144 +1258,144 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Louisiana-Monroe</t>
+          <t>Manhattan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sam Houston</t>
+          <t>Fairfield</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" t="n">
         <v>67.2</v>
       </c>
       <c r="I6" t="n">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="J6" t="n">
-        <v>1860</v>
+        <v>1682</v>
       </c>
       <c r="K6" t="n">
-        <v>0.408</v>
+        <v>0.436</v>
       </c>
       <c r="L6" t="n">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>616</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.351</v>
+        <v>0.333</v>
       </c>
       <c r="O6" t="n">
-        <v>397</v>
+        <v>343</v>
       </c>
       <c r="P6" t="n">
-        <v>557</v>
+        <v>520</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.713</v>
+        <v>0.66</v>
       </c>
       <c r="R6" t="n">
-        <v>345</v>
+        <v>274</v>
       </c>
       <c r="S6" t="n">
-        <v>779</v>
+        <v>678</v>
       </c>
       <c r="T6" t="n">
-        <v>1124</v>
+        <v>952</v>
       </c>
       <c r="U6" t="n">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="V6" t="n">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="W6" t="n">
+        <v>105</v>
+      </c>
+      <c r="X6" t="n">
+        <v>406</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>492</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>690</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1681</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>178</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>454</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>627</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>305</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>740</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1045</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>296</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>170</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>114</v>
       </c>
-      <c r="X6" t="n">
-        <v>405</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>484</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>2157</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>894</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1961</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>277</v>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>731</t>
-        </is>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.379</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>389</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>575</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.677</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>388</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>862</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>460</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>279</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>76</v>
-      </c>
       <c r="AR6" t="n">
-        <v>446</v>
+        <v>367</v>
       </c>
       <c r="AS6" t="n">
-        <v>606</v>
+        <v>472</v>
       </c>
       <c r="AT6" t="n">
-        <v>2454</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="7">
@@ -1400,144 +1404,144 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>California Baptist</t>
+          <t>Delaware State</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Oregon</t>
+          <t>Wake Forest</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
+        <v>30</v>
+      </c>
+      <c r="H7" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>714</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1725</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="L7" t="n">
+        <v>171</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="O7" t="n">
+        <v>340</v>
+      </c>
+      <c r="P7" t="n">
+        <v>494</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="R7" t="n">
+        <v>336</v>
+      </c>
+      <c r="S7" t="n">
+        <v>711</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1047</v>
+      </c>
+      <c r="U7" t="n">
+        <v>372</v>
+      </c>
+      <c r="V7" t="n">
+        <v>209</v>
+      </c>
+      <c r="W7" t="n">
+        <v>79</v>
+      </c>
+      <c r="X7" t="n">
+        <v>481</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>551</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1939</v>
+      </c>
+      <c r="AA7" t="n">
         <v>33</v>
       </c>
-      <c r="H7" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="I7" t="n">
-        <v>811</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1898</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.427</v>
-      </c>
-      <c r="L7" t="n">
-        <v>276</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>837</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O7" t="n">
-        <v>393</v>
-      </c>
-      <c r="P7" t="n">
-        <v>592</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.664</v>
-      </c>
-      <c r="R7" t="n">
-        <v>362</v>
-      </c>
-      <c r="S7" t="n">
-        <v>865</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1227</v>
-      </c>
-      <c r="U7" t="n">
-        <v>471</v>
-      </c>
-      <c r="V7" t="n">
-        <v>146</v>
-      </c>
-      <c r="W7" t="n">
-        <v>103</v>
-      </c>
-      <c r="X7" t="n">
-        <v>379</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>569</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2291</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>36</v>
-      </c>
       <c r="AB7" t="n">
-        <v>66.5</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>916</v>
+        <v>878</v>
       </c>
       <c r="AD7" t="n">
-        <v>2043</v>
+        <v>1909</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.448</v>
+        <v>0.46</v>
       </c>
       <c r="AF7" t="n">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>866</t>
         </is>
       </c>
       <c r="AH7" t="n">
-        <v>0.32</v>
+        <v>0.364</v>
       </c>
       <c r="AI7" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AJ7" t="n">
-        <v>653</v>
+        <v>613</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.695</v>
+        <v>0.746</v>
       </c>
       <c r="AL7" t="n">
-        <v>397</v>
+        <v>275</v>
       </c>
       <c r="AM7" t="n">
-        <v>957</v>
+        <v>854</v>
       </c>
       <c r="AN7" t="n">
-        <v>1354</v>
+        <v>1129</v>
       </c>
       <c r="AO7" t="n">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="AP7" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AQ7" t="n">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="AR7" t="n">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="AS7" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AT7" t="n">
-        <v>2542</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="8">
@@ -1546,18 +1550,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Stonehill</t>
+          <t>Chicago State</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Boston College</t>
+          <t>Alabama A&amp;M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -1565,125 +1569,125 @@
         <v>31</v>
       </c>
       <c r="H8" t="n">
-        <v>67.5</v>
+        <v>66.8</v>
       </c>
       <c r="I8" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="J8" t="n">
-        <v>1633</v>
+        <v>1757</v>
       </c>
       <c r="K8" t="n">
-        <v>0.441</v>
+        <v>0.433</v>
       </c>
       <c r="L8" t="n">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>755</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.353</v>
+        <v>0.339</v>
       </c>
       <c r="O8" t="n">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="P8" t="n">
-        <v>524</v>
+        <v>555</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.758</v>
+        <v>0.728</v>
       </c>
       <c r="R8" t="n">
-        <v>194</v>
+        <v>365</v>
       </c>
       <c r="S8" t="n">
-        <v>769</v>
+        <v>725</v>
       </c>
       <c r="T8" t="n">
-        <v>963</v>
+        <v>1090</v>
       </c>
       <c r="U8" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V8" t="n">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="W8" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="X8" t="n">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Y8" t="n">
-        <v>468</v>
+        <v>561</v>
       </c>
       <c r="Z8" t="n">
-        <v>2076</v>
+        <v>2180</v>
       </c>
       <c r="AA8" t="n">
         <v>33</v>
       </c>
       <c r="AB8" t="n">
-        <v>66.7</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="AD8" t="n">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.437</v>
+        <v>0.441</v>
       </c>
       <c r="AF8" t="n">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>610</t>
         </is>
       </c>
       <c r="AH8" t="n">
-        <v>0.319</v>
+        <v>0.37</v>
       </c>
       <c r="AI8" t="n">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="AJ8" t="n">
-        <v>512</v>
+        <v>649</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.725</v>
+        <v>0.655</v>
       </c>
       <c r="AL8" t="n">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="AM8" t="n">
-        <v>785</v>
+        <v>745</v>
       </c>
       <c r="AN8" t="n">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="AO8" t="n">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="AP8" t="n">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="AQ8" t="n">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="AR8" t="n">
-        <v>405</v>
+        <v>498</v>
       </c>
       <c r="AS8" t="n">
-        <v>521</v>
+        <v>624</v>
       </c>
       <c r="AT8" t="n">
-        <v>2197</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="9">
@@ -1692,18 +1696,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Towson</t>
+          <t>Duquesne</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Maryland</t>
+          <t>Bradley</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -1711,125 +1715,125 @@
         <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>65.7</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>860</v>
+        <v>897</v>
       </c>
       <c r="J9" t="n">
-        <v>1922</v>
+        <v>2052</v>
       </c>
       <c r="K9" t="n">
-        <v>0.447</v>
+        <v>0.437</v>
       </c>
       <c r="L9" t="n">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>826</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O9" t="n">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="P9" t="n">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.708</v>
+        <v>0.694</v>
       </c>
       <c r="R9" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="S9" t="n">
-        <v>825</v>
+        <v>767</v>
       </c>
       <c r="T9" t="n">
-        <v>1232</v>
+        <v>1177</v>
       </c>
       <c r="U9" t="n">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="V9" t="n">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="W9" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="X9" t="n">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="Y9" t="n">
-        <v>538</v>
+        <v>614</v>
       </c>
       <c r="Z9" t="n">
-        <v>2368</v>
+        <v>2472</v>
       </c>
       <c r="AA9" t="n">
         <v>35</v>
       </c>
       <c r="AB9" t="n">
-        <v>64.5</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>862</v>
+        <v>917</v>
       </c>
       <c r="AD9" t="n">
-        <v>1925</v>
+        <v>1989</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.448</v>
+        <v>0.461</v>
       </c>
       <c r="AF9" t="n">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>777</t>
         </is>
       </c>
       <c r="AH9" t="n">
-        <v>0.328</v>
+        <v>0.355</v>
       </c>
       <c r="AI9" t="n">
-        <v>483</v>
+        <v>363</v>
       </c>
       <c r="AJ9" t="n">
-        <v>660</v>
+        <v>546</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.732</v>
+        <v>0.665</v>
       </c>
       <c r="AL9" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AM9" t="n">
-        <v>833</v>
+        <v>899</v>
       </c>
       <c r="AN9" t="n">
-        <v>1175</v>
+        <v>1240</v>
       </c>
       <c r="AO9" t="n">
-        <v>398</v>
+        <v>465</v>
       </c>
       <c r="AP9" t="n">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="AQ9" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AR9" t="n">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="AS9" t="n">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AT9" t="n">
-        <v>2440</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="10">
@@ -1838,144 +1842,144 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Alcorn State</t>
+          <t>Wright State</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Maryland</t>
+          <t>West Virginia</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" t="n">
-        <v>67.8</v>
+        <v>72</v>
       </c>
       <c r="I10" t="n">
-        <v>763</v>
+        <v>1031</v>
       </c>
       <c r="J10" t="n">
-        <v>1868</v>
+        <v>2077</v>
       </c>
       <c r="K10" t="n">
-        <v>0.408</v>
+        <v>0.496</v>
       </c>
       <c r="L10" t="n">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>574</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.296</v>
+        <v>0.357</v>
       </c>
       <c r="O10" t="n">
-        <v>475</v>
+        <v>370</v>
       </c>
       <c r="P10" t="n">
-        <v>659</v>
+        <v>502</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.721</v>
+        <v>0.737</v>
       </c>
       <c r="R10" t="n">
-        <v>384</v>
+        <v>304</v>
       </c>
       <c r="S10" t="n">
-        <v>703</v>
+        <v>908</v>
       </c>
       <c r="T10" t="n">
-        <v>1087</v>
+        <v>1212</v>
       </c>
       <c r="U10" t="n">
-        <v>316</v>
+        <v>495</v>
       </c>
       <c r="V10" t="n">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="W10" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="X10" t="n">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="Y10" t="n">
-        <v>605</v>
+        <v>514</v>
       </c>
       <c r="Z10" t="n">
-        <v>2165</v>
+        <v>2637</v>
       </c>
       <c r="AA10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
-        <v>64.5</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>862</v>
+        <v>882</v>
       </c>
       <c r="AD10" t="n">
-        <v>1925</v>
+        <v>1953</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.448</v>
+        <v>0.452</v>
       </c>
       <c r="AF10" t="n">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>708</t>
         </is>
       </c>
       <c r="AH10" t="n">
-        <v>0.328</v>
+        <v>0.35</v>
       </c>
       <c r="AI10" t="n">
-        <v>483</v>
+        <v>571</v>
       </c>
       <c r="AJ10" t="n">
-        <v>660</v>
+        <v>769</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.732</v>
+        <v>0.743</v>
       </c>
       <c r="AL10" t="n">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="AM10" t="n">
-        <v>833</v>
+        <v>769</v>
       </c>
       <c r="AN10" t="n">
-        <v>1175</v>
+        <v>1152</v>
       </c>
       <c r="AO10" t="n">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="AP10" t="n">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="AQ10" t="n">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="AR10" t="n">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="AS10" t="n">
-        <v>560</v>
+        <v>632</v>
       </c>
       <c r="AT10" t="n">
-        <v>2440</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="11">
@@ -1984,144 +1988,144 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bowling Green State</t>
+          <t>Louisiana-Monroe</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Wright State</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" t="n">
-        <v>71.2</v>
+        <v>67.2</v>
       </c>
       <c r="I11" t="n">
-        <v>840</v>
+        <v>759</v>
       </c>
       <c r="J11" t="n">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="K11" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="L11" t="n">
+        <v>242</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="O11" t="n">
+        <v>397</v>
+      </c>
+      <c r="P11" t="n">
+        <v>557</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="R11" t="n">
+        <v>345</v>
+      </c>
+      <c r="S11" t="n">
+        <v>779</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1124</v>
+      </c>
+      <c r="U11" t="n">
+        <v>403</v>
+      </c>
+      <c r="V11" t="n">
+        <v>220</v>
+      </c>
+      <c r="W11" t="n">
+        <v>114</v>
+      </c>
+      <c r="X11" t="n">
+        <v>405</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>484</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2157</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>62</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>686</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1519</v>
+      </c>
+      <c r="AE11" t="n">
         <v>0.452</v>
       </c>
-      <c r="L11" t="n">
-        <v>224</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>658</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="AF11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="AH11" t="n">
         <v>0.34</v>
       </c>
-      <c r="O11" t="n">
-        <v>451</v>
-      </c>
-      <c r="P11" t="n">
-        <v>622</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="R11" t="n">
-        <v>326</v>
-      </c>
-      <c r="S11" t="n">
-        <v>783</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1109</v>
-      </c>
-      <c r="U11" t="n">
-        <v>428</v>
-      </c>
-      <c r="V11" t="n">
-        <v>188</v>
-      </c>
-      <c r="W11" t="n">
-        <v>93</v>
-      </c>
-      <c r="X11" t="n">
-        <v>378</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>550</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>2355</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>33</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>72</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1031</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>2077</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.496</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>205</v>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>574</t>
-        </is>
-      </c>
-      <c r="AH11" t="n">
-        <v>0.357</v>
-      </c>
       <c r="AI11" t="n">
-        <v>370</v>
+        <v>265</v>
       </c>
       <c r="AJ11" t="n">
-        <v>502</v>
+        <v>353</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.737</v>
+        <v>0.751</v>
       </c>
       <c r="AL11" t="n">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c r="AM11" t="n">
-        <v>908</v>
+        <v>748</v>
       </c>
       <c r="AN11" t="n">
-        <v>1212</v>
+        <v>968</v>
       </c>
       <c r="AO11" t="n">
-        <v>495</v>
+        <v>376</v>
       </c>
       <c r="AP11" t="n">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="AQ11" t="n">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="AR11" t="n">
-        <v>419</v>
+        <v>333</v>
       </c>
       <c r="AS11" t="n">
-        <v>514</v>
+        <v>409</v>
       </c>
       <c r="AT11" t="n">
-        <v>2637</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="12">
@@ -2130,144 +2134,144 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Western Kentucky</t>
+          <t>Canisius</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Wright State</t>
+          <t>Marist</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H12" t="n">
-        <v>68.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="I12" t="n">
-        <v>839</v>
+        <v>763</v>
       </c>
       <c r="J12" t="n">
-        <v>1907</v>
+        <v>1809</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.422</v>
       </c>
       <c r="L12" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>734</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.358</v>
+        <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>428</v>
+        <v>328</v>
       </c>
       <c r="P12" t="n">
-        <v>601</v>
+        <v>448</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.712</v>
+        <v>0.732</v>
       </c>
       <c r="R12" t="n">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="S12" t="n">
-        <v>852</v>
+        <v>695</v>
       </c>
       <c r="T12" t="n">
-        <v>1152</v>
+        <v>1008</v>
       </c>
       <c r="U12" t="n">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="V12" t="n">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="W12" t="n">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="X12" t="n">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="Y12" t="n">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="Z12" t="n">
-        <v>2355</v>
+        <v>2111</v>
       </c>
       <c r="AA12" t="n">
         <v>33</v>
       </c>
       <c r="AB12" t="n">
-        <v>72</v>
+        <v>65.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1031</v>
+        <v>745</v>
       </c>
       <c r="AD12" t="n">
-        <v>2077</v>
+        <v>1819</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.496</v>
+        <v>0.41</v>
       </c>
       <c r="AF12" t="n">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>771</t>
         </is>
       </c>
       <c r="AH12" t="n">
-        <v>0.357</v>
+        <v>0.328</v>
       </c>
       <c r="AI12" t="n">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AJ12" t="n">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.737</v>
+        <v>0.698</v>
       </c>
       <c r="AL12" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AM12" t="n">
-        <v>908</v>
+        <v>837</v>
       </c>
       <c r="AN12" t="n">
-        <v>1212</v>
+        <v>1131</v>
       </c>
       <c r="AO12" t="n">
-        <v>495</v>
+        <v>357</v>
       </c>
       <c r="AP12" t="n">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AQ12" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="AR12" t="n">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="AS12" t="n">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="AT12" t="n">
-        <v>2637</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="13">
@@ -2276,18 +2280,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>South Carolina State</t>
+          <t>Maryland-Eastern Shore</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>UAB</t>
+          <t>Marist</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -2295,125 +2299,125 @@
         <v>31</v>
       </c>
       <c r="H13" t="n">
-        <v>73.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>838</v>
+        <v>776</v>
       </c>
       <c r="J13" t="n">
-        <v>1980</v>
+        <v>1812</v>
       </c>
       <c r="K13" t="n">
-        <v>0.423</v>
+        <v>0.428</v>
       </c>
       <c r="L13" t="n">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>720</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.317</v>
+        <v>0.318</v>
       </c>
       <c r="O13" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P13" t="n">
-        <v>575</v>
+        <v>530</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.67</v>
+        <v>0.719</v>
       </c>
       <c r="R13" t="n">
-        <v>429</v>
+        <v>305</v>
       </c>
       <c r="S13" t="n">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="T13" t="n">
-        <v>1097</v>
+        <v>988</v>
       </c>
       <c r="U13" t="n">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="V13" t="n">
-        <v>224</v>
+        <v>345</v>
       </c>
       <c r="W13" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="X13" t="n">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="Y13" t="n">
-        <v>637</v>
+        <v>515</v>
       </c>
       <c r="Z13" t="n">
-        <v>2274</v>
+        <v>2162</v>
       </c>
       <c r="AA13" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AB13" t="n">
-        <v>70.59999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>1112</v>
+        <v>745</v>
       </c>
       <c r="AD13" t="n">
-        <v>2462</v>
+        <v>1819</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.452</v>
+        <v>0.41</v>
       </c>
       <c r="AF13" t="n">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>771</t>
         </is>
       </c>
       <c r="AH13" t="n">
-        <v>0.355</v>
+        <v>0.328</v>
       </c>
       <c r="AI13" t="n">
-        <v>649</v>
+        <v>367</v>
       </c>
       <c r="AJ13" t="n">
-        <v>876</v>
+        <v>526</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.741</v>
+        <v>0.698</v>
       </c>
       <c r="AL13" t="n">
-        <v>526</v>
+        <v>294</v>
       </c>
       <c r="AM13" t="n">
-        <v>1069</v>
+        <v>837</v>
       </c>
       <c r="AN13" t="n">
-        <v>1595</v>
+        <v>1131</v>
       </c>
       <c r="AO13" t="n">
-        <v>551</v>
+        <v>357</v>
       </c>
       <c r="AP13" t="n">
-        <v>314</v>
+        <v>195</v>
       </c>
       <c r="AQ13" t="n">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="AR13" t="n">
-        <v>488</v>
+        <v>392</v>
       </c>
       <c r="AS13" t="n">
-        <v>664</v>
+        <v>509</v>
       </c>
       <c r="AT13" t="n">
-        <v>3149</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="14">
@@ -2422,18 +2426,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Texas Southern</t>
+          <t>Texas State</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Florida International</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -2441,125 +2445,125 @@
         <v>35</v>
       </c>
       <c r="H14" t="n">
-        <v>70.90000000000001</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>894</v>
+        <v>848</v>
       </c>
       <c r="J14" t="n">
-        <v>2095</v>
+        <v>1918</v>
       </c>
       <c r="K14" t="n">
-        <v>0.427</v>
+        <v>0.442</v>
       </c>
       <c r="L14" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>501</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.277</v>
+        <v>0.307</v>
       </c>
       <c r="O14" t="n">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="P14" t="n">
-        <v>709</v>
+        <v>630</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.664</v>
+        <v>0.729</v>
       </c>
       <c r="R14" t="n">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="S14" t="n">
-        <v>908</v>
+        <v>784</v>
       </c>
       <c r="T14" t="n">
-        <v>1313</v>
+        <v>1143</v>
       </c>
       <c r="U14" t="n">
-        <v>412</v>
+        <v>346</v>
       </c>
       <c r="V14" t="n">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="W14" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X14" t="n">
-        <v>511</v>
+        <v>411</v>
       </c>
       <c r="Y14" t="n">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="Z14" t="n">
-        <v>2422</v>
+        <v>2309</v>
       </c>
       <c r="AA14" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>64.8</v>
+        <v>71</v>
       </c>
       <c r="AC14" t="n">
-        <v>1010</v>
+        <v>867</v>
       </c>
       <c r="AD14" t="n">
-        <v>2203</v>
+        <v>1861</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.458</v>
+        <v>0.466</v>
       </c>
       <c r="AF14" t="n">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>671</t>
         </is>
       </c>
       <c r="AH14" t="n">
-        <v>0.34</v>
+        <v>0.326</v>
       </c>
       <c r="AI14" t="n">
-        <v>466</v>
+        <v>386</v>
       </c>
       <c r="AJ14" t="n">
-        <v>636</v>
+        <v>541</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.733</v>
+        <v>0.713</v>
       </c>
       <c r="AL14" t="n">
-        <v>474</v>
+        <v>275</v>
       </c>
       <c r="AM14" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="AN14" t="n">
-        <v>1441</v>
+        <v>1008</v>
       </c>
       <c r="AO14" t="n">
-        <v>544</v>
+        <v>397</v>
       </c>
       <c r="AP14" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AQ14" t="n">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="AR14" t="n">
-        <v>370</v>
+        <v>473</v>
       </c>
       <c r="AS14" t="n">
-        <v>618</v>
+        <v>547</v>
       </c>
       <c r="AT14" t="n">
-        <v>2770</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="15">
@@ -2568,144 +2572,144 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Monmouth</t>
+          <t>Tarleton State</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Seton Hall</t>
+          <t>New Orleans</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15" t="n">
-        <v>68.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>746</v>
+        <v>847</v>
       </c>
       <c r="J15" t="n">
-        <v>1856</v>
+        <v>1868</v>
       </c>
       <c r="K15" t="n">
-        <v>0.402</v>
+        <v>0.453</v>
       </c>
       <c r="L15" t="n">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>477</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.288</v>
+        <v>0.342</v>
       </c>
       <c r="O15" t="n">
-        <v>410</v>
+        <v>589</v>
       </c>
       <c r="P15" t="n">
-        <v>615</v>
+        <v>837</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.667</v>
+        <v>0.704</v>
       </c>
       <c r="R15" t="n">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="S15" t="n">
-        <v>723</v>
+        <v>752</v>
       </c>
       <c r="T15" t="n">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="U15" t="n">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="V15" t="n">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="W15" t="n">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="X15" t="n">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="Y15" t="n">
-        <v>635</v>
+        <v>694</v>
       </c>
       <c r="Z15" t="n">
-        <v>2036</v>
+        <v>2446</v>
       </c>
       <c r="AA15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>67.8</v>
+        <v>72.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>784</v>
+        <v>833</v>
       </c>
       <c r="AD15" t="n">
         <v>1785</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.439</v>
+        <v>0.467</v>
       </c>
       <c r="AF15" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>519</t>
         </is>
       </c>
       <c r="AH15" t="n">
-        <v>0.325</v>
+        <v>0.378</v>
       </c>
       <c r="AI15" t="n">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="AJ15" t="n">
-        <v>726</v>
+        <v>674</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.709</v>
       </c>
       <c r="AL15" t="n">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="AM15" t="n">
-        <v>808</v>
+        <v>723</v>
       </c>
       <c r="AN15" t="n">
-        <v>1157</v>
+        <v>1032</v>
       </c>
       <c r="AO15" t="n">
-        <v>401</v>
+        <v>466</v>
       </c>
       <c r="AP15" t="n">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="AQ15" t="n">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="AR15" t="n">
-        <v>454</v>
+        <v>547</v>
       </c>
       <c r="AS15" t="n">
-        <v>586</v>
+        <v>619</v>
       </c>
       <c r="AT15" t="n">
-        <v>2256</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="16">
@@ -2714,144 +2718,144 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Northwestern State</t>
+          <t>Murray State</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Louisiana-Monroe</t>
+          <t>Western Carolina</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" t="n">
-        <v>68.40000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>900</v>
+        <v>805</v>
       </c>
       <c r="J16" t="n">
-        <v>2024</v>
+        <v>1824</v>
       </c>
       <c r="K16" t="n">
-        <v>0.445</v>
+        <v>0.441</v>
       </c>
       <c r="L16" t="n">
-        <v>278</v>
+        <v>197</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>593</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.361</v>
+        <v>0.332</v>
       </c>
       <c r="O16" t="n">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="P16" t="n">
-        <v>547</v>
+        <v>607</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.704</v>
+        <v>0.736</v>
       </c>
       <c r="R16" t="n">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="S16" t="n">
-        <v>714</v>
+        <v>810</v>
       </c>
       <c r="T16" t="n">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="U16" t="n">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="V16" t="n">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="W16" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X16" t="n">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="Y16" t="n">
-        <v>605</v>
+        <v>467</v>
       </c>
       <c r="Z16" t="n">
-        <v>2463</v>
+        <v>2254</v>
       </c>
       <c r="AA16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB16" t="n">
-        <v>67.2</v>
+        <v>68.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>759</v>
+        <v>871</v>
       </c>
       <c r="AD16" t="n">
-        <v>1860</v>
+        <v>2015</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.408</v>
+        <v>0.432</v>
       </c>
       <c r="AF16" t="n">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>849</t>
         </is>
       </c>
       <c r="AH16" t="n">
-        <v>0.351</v>
+        <v>0.34</v>
       </c>
       <c r="AI16" t="n">
-        <v>397</v>
+        <v>482</v>
       </c>
       <c r="AJ16" t="n">
-        <v>557</v>
+        <v>674</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.713</v>
+        <v>0.715</v>
       </c>
       <c r="AL16" t="n">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="AM16" t="n">
-        <v>779</v>
+        <v>921</v>
       </c>
       <c r="AN16" t="n">
-        <v>1124</v>
+        <v>1256</v>
       </c>
       <c r="AO16" t="n">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="AP16" t="n">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="AQ16" t="n">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="AR16" t="n">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="AS16" t="n">
-        <v>484</v>
+        <v>588</v>
       </c>
       <c r="AT16" t="n">
-        <v>2157</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="17">
@@ -2860,144 +2864,144 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Northwestern State</t>
+          <t>Murray State</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Boise State</t>
+          <t>Little Rock</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" t="n">
-        <v>68.40000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>900</v>
+        <v>805</v>
       </c>
       <c r="J17" t="n">
-        <v>2024</v>
+        <v>1824</v>
       </c>
       <c r="K17" t="n">
-        <v>0.445</v>
+        <v>0.441</v>
       </c>
       <c r="L17" t="n">
-        <v>278</v>
+        <v>197</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>593</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.361</v>
+        <v>0.332</v>
       </c>
       <c r="O17" t="n">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="P17" t="n">
-        <v>547</v>
+        <v>607</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.704</v>
+        <v>0.736</v>
       </c>
       <c r="R17" t="n">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="S17" t="n">
-        <v>714</v>
+        <v>810</v>
       </c>
       <c r="T17" t="n">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="U17" t="n">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="V17" t="n">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="W17" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X17" t="n">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="Y17" t="n">
-        <v>605</v>
+        <v>467</v>
       </c>
       <c r="Z17" t="n">
-        <v>2463</v>
+        <v>2254</v>
       </c>
       <c r="AA17" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AB17" t="n">
-        <v>66.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>878</v>
+        <v>845</v>
       </c>
       <c r="AD17" t="n">
-        <v>1938</v>
+        <v>1907</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.453</v>
+        <v>0.443</v>
       </c>
       <c r="AF17" t="n">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>567</t>
         </is>
       </c>
       <c r="AH17" t="n">
-        <v>0.362</v>
+        <v>0.326</v>
       </c>
       <c r="AI17" t="n">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="AJ17" t="n">
-        <v>587</v>
+        <v>632</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.733</v>
+        <v>0.731</v>
       </c>
       <c r="AL17" t="n">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="AM17" t="n">
-        <v>908</v>
+        <v>768</v>
       </c>
       <c r="AN17" t="n">
-        <v>1215</v>
+        <v>1107</v>
       </c>
       <c r="AO17" t="n">
-        <v>385</v>
+        <v>460</v>
       </c>
       <c r="AP17" t="n">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="AQ17" t="n">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="AR17" t="n">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="AS17" t="n">
-        <v>555</v>
+        <v>609</v>
       </c>
       <c r="AT17" t="n">
-        <v>2451</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="18">
@@ -3006,144 +3010,144 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Southeastern Louisiana</t>
+          <t>North Carolina Central</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Louisiana Tech</t>
+          <t>UNC Asheville</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>70.40000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="I18" t="n">
-        <v>889</v>
+        <v>815</v>
       </c>
       <c r="J18" t="n">
-        <v>1942</v>
+        <v>1737</v>
       </c>
       <c r="K18" t="n">
-        <v>0.458</v>
+        <v>0.469</v>
       </c>
       <c r="L18" t="n">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>614</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.369</v>
+        <v>0.36</v>
       </c>
       <c r="O18" t="n">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="P18" t="n">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.742</v>
+        <v>0.702</v>
       </c>
       <c r="R18" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S18" t="n">
-        <v>778</v>
+        <v>745</v>
       </c>
       <c r="T18" t="n">
-        <v>1107</v>
+        <v>1073</v>
       </c>
       <c r="U18" t="n">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="V18" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="W18" t="n">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="X18" t="n">
-        <v>390</v>
+        <v>459</v>
       </c>
       <c r="Y18" t="n">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="Z18" t="n">
-        <v>2483</v>
+        <v>2268</v>
       </c>
       <c r="AA18" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB18" t="n">
-        <v>67.7</v>
+        <v>69.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>854</v>
+        <v>897</v>
       </c>
       <c r="AD18" t="n">
-        <v>1930</v>
+        <v>1890</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.442</v>
+        <v>0.475</v>
       </c>
       <c r="AF18" t="n">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>707</t>
         </is>
       </c>
       <c r="AH18" t="n">
-        <v>0.345</v>
+        <v>0.388</v>
       </c>
       <c r="AI18" t="n">
-        <v>394</v>
+        <v>536</v>
       </c>
       <c r="AJ18" t="n">
-        <v>546</v>
+        <v>772</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.722</v>
+        <v>0.694</v>
       </c>
       <c r="AL18" t="n">
-        <v>359</v>
+        <v>295</v>
       </c>
       <c r="AM18" t="n">
-        <v>786</v>
+        <v>924</v>
       </c>
       <c r="AN18" t="n">
-        <v>1145</v>
+        <v>1219</v>
       </c>
       <c r="AO18" t="n">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="AP18" t="n">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AQ18" t="n">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="AR18" t="n">
-        <v>451</v>
+        <v>496</v>
       </c>
       <c r="AS18" t="n">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="AT18" t="n">
-        <v>2383</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="19">
@@ -3152,144 +3156,144 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>North Carolina Central</t>
+          <t>South Carolina State</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>North Carolina A&amp;T</t>
+          <t>UNC Asheville</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19" t="n">
-        <v>70.2</v>
+        <v>73.7</v>
       </c>
       <c r="I19" t="n">
-        <v>815</v>
+        <v>838</v>
       </c>
       <c r="J19" t="n">
-        <v>1737</v>
+        <v>1980</v>
       </c>
       <c r="K19" t="n">
-        <v>0.469</v>
+        <v>0.423</v>
       </c>
       <c r="L19" t="n">
+        <v>213</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="O19" t="n">
+        <v>385</v>
+      </c>
+      <c r="P19" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R19" t="n">
+        <v>429</v>
+      </c>
+      <c r="S19" t="n">
+        <v>668</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1097</v>
+      </c>
+      <c r="U19" t="n">
+        <v>435</v>
+      </c>
+      <c r="V19" t="n">
+        <v>224</v>
+      </c>
+      <c r="W19" t="n">
+        <v>100</v>
+      </c>
+      <c r="X19" t="n">
+        <v>486</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>637</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2274</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>897</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1890</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>274</v>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>536</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>772</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>295</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>924</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>446</v>
+      </c>
+      <c r="AP19" t="n">
         <v>221</v>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>614</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O19" t="n">
-        <v>417</v>
-      </c>
-      <c r="P19" t="n">
-        <v>594</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.702</v>
-      </c>
-      <c r="R19" t="n">
-        <v>328</v>
-      </c>
-      <c r="S19" t="n">
-        <v>745</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1073</v>
-      </c>
-      <c r="U19" t="n">
-        <v>439</v>
-      </c>
-      <c r="V19" t="n">
-        <v>239</v>
-      </c>
-      <c r="W19" t="n">
-        <v>97</v>
-      </c>
-      <c r="X19" t="n">
-        <v>459</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>575</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>2268</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>70.7</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>806</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1931</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>261</v>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="AH19" t="n">
-        <v>0.332</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>391</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>574</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0.681</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>300</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>836</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1136</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>375</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>240</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="AR19" t="n">
-        <v>385</v>
+        <v>496</v>
       </c>
       <c r="AS19" t="n">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="AT19" t="n">
-        <v>2264</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="20">
@@ -3298,144 +3302,144 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>VMI</t>
+          <t>San Jose State</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Radford</t>
+          <t>Cal State Northridge</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
+        <v>35</v>
+      </c>
+      <c r="H20" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>869</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1996</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="L20" t="n">
+        <v>265</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="O20" t="n">
+        <v>359</v>
+      </c>
+      <c r="P20" t="n">
+        <v>529</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="R20" t="n">
+        <v>423</v>
+      </c>
+      <c r="S20" t="n">
+        <v>912</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1335</v>
+      </c>
+      <c r="U20" t="n">
+        <v>428</v>
+      </c>
+      <c r="V20" t="n">
+        <v>142</v>
+      </c>
+      <c r="W20" t="n">
+        <v>145</v>
+      </c>
+      <c r="X20" t="n">
+        <v>416</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>545</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2362</v>
+      </c>
+      <c r="AA20" t="n">
         <v>32</v>
       </c>
-      <c r="H20" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>800</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1923</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="L20" t="n">
-        <v>309</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>880</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>0.351</v>
-      </c>
-      <c r="O20" t="n">
-        <v>311</v>
-      </c>
-      <c r="P20" t="n">
-        <v>406</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.766</v>
-      </c>
-      <c r="R20" t="n">
-        <v>349</v>
-      </c>
-      <c r="S20" t="n">
-        <v>782</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1131</v>
-      </c>
-      <c r="U20" t="n">
-        <v>365</v>
-      </c>
-      <c r="V20" t="n">
-        <v>172</v>
-      </c>
-      <c r="W20" t="n">
-        <v>37</v>
-      </c>
-      <c r="X20" t="n">
-        <v>411</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>484</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>2220</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>36</v>
-      </c>
       <c r="AB20" t="n">
-        <v>64.90000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>931</v>
+        <v>695</v>
       </c>
       <c r="AD20" t="n">
-        <v>2023</v>
+        <v>1735</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.46</v>
+        <v>0.401</v>
       </c>
       <c r="AF20" t="n">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>575</t>
         </is>
       </c>
       <c r="AH20" t="n">
-        <v>0.359</v>
+        <v>0.32</v>
       </c>
       <c r="AI20" t="n">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="AJ20" t="n">
-        <v>579</v>
+        <v>612</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.742</v>
       </c>
       <c r="AL20" t="n">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="AM20" t="n">
-        <v>832</v>
+        <v>753</v>
       </c>
       <c r="AN20" t="n">
-        <v>1202</v>
+        <v>1066</v>
       </c>
       <c r="AO20" t="n">
-        <v>426</v>
+        <v>314</v>
       </c>
       <c r="AP20" t="n">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="AQ20" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AR20" t="n">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="AS20" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AT20" t="n">
-        <v>2496</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="21">
@@ -3444,144 +3448,144 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Arkansas-Pine Bluff</t>
+          <t>Northern Arizona</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>South Florida</t>
+          <t>Pepperdine</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
+        <v>35</v>
+      </c>
+      <c r="H21" t="n">
+        <v>68</v>
+      </c>
+      <c r="I21" t="n">
+        <v>930</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2123</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="L21" t="n">
+        <v>295</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="O21" t="n">
+        <v>426</v>
+      </c>
+      <c r="P21" t="n">
+        <v>576</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R21" t="n">
+        <v>354</v>
+      </c>
+      <c r="S21" t="n">
+        <v>835</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1189</v>
+      </c>
+      <c r="U21" t="n">
+        <v>484</v>
+      </c>
+      <c r="V21" t="n">
+        <v>185</v>
+      </c>
+      <c r="W21" t="n">
+        <v>53</v>
+      </c>
+      <c r="X21" t="n">
+        <v>378</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>649</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2581</v>
+      </c>
+      <c r="AA21" t="n">
         <v>31</v>
       </c>
-      <c r="H21" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>701</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1791</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.391</v>
-      </c>
-      <c r="L21" t="n">
-        <v>245</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>776</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="O21" t="n">
-        <v>427</v>
-      </c>
-      <c r="P21" t="n">
-        <v>587</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="R21" t="n">
-        <v>314</v>
-      </c>
-      <c r="S21" t="n">
-        <v>757</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1071</v>
-      </c>
-      <c r="U21" t="n">
-        <v>396</v>
-      </c>
-      <c r="V21" t="n">
-        <v>250</v>
-      </c>
-      <c r="W21" t="n">
-        <v>86</v>
-      </c>
-      <c r="X21" t="n">
-        <v>473</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>611</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>2074</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>32</v>
-      </c>
       <c r="AB21" t="n">
-        <v>69.59999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>844</v>
+        <v>898</v>
       </c>
       <c r="AD21" t="n">
-        <v>1894</v>
+        <v>1930</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.446</v>
+        <v>0.465</v>
       </c>
       <c r="AF21" t="n">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>699</t>
         </is>
       </c>
       <c r="AH21" t="n">
-        <v>0.336</v>
+        <v>0.362</v>
       </c>
       <c r="AI21" t="n">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="AJ21" t="n">
-        <v>582</v>
+        <v>518</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.651</v>
+        <v>0.71</v>
       </c>
       <c r="AL21" t="n">
-        <v>381</v>
+        <v>286</v>
       </c>
       <c r="AM21" t="n">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="AN21" t="n">
-        <v>1197</v>
+        <v>1109</v>
       </c>
       <c r="AO21" t="n">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="AP21" t="n">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="AQ21" t="n">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="AR21" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AS21" t="n">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="AT21" t="n">
-        <v>2303</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="22">
@@ -3590,144 +3594,144 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Coppin State</t>
+          <t>Detroit Mercy</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Georgetown</t>
+          <t>Bellarmine</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H22" t="n">
-        <v>73.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="I22" t="n">
+        <v>876</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="L22" t="n">
+        <v>338</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="O22" t="n">
+        <v>437</v>
+      </c>
+      <c r="P22" t="n">
+        <v>569</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="R22" t="n">
+        <v>433</v>
+      </c>
+      <c r="S22" t="n">
         <v>779</v>
       </c>
-      <c r="J22" t="n">
-        <v>1790</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="L22" t="n">
-        <v>268</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>793</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>0.338</v>
-      </c>
-      <c r="O22" t="n">
-        <v>478</v>
-      </c>
-      <c r="P22" t="n">
-        <v>665</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.719</v>
-      </c>
-      <c r="R22" t="n">
-        <v>206</v>
-      </c>
-      <c r="S22" t="n">
-        <v>767</v>
-      </c>
       <c r="T22" t="n">
-        <v>973</v>
+        <v>1212</v>
       </c>
       <c r="U22" t="n">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="V22" t="n">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="W22" t="n">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="X22" t="n">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="Y22" t="n">
-        <v>629</v>
+        <v>529</v>
       </c>
       <c r="Z22" t="n">
-        <v>2304</v>
+        <v>2527</v>
       </c>
       <c r="AA22" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB22" t="n">
-        <v>69.59999999999999</v>
+        <v>62.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="AD22" t="n">
-        <v>1934</v>
+        <v>1738</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.423</v>
+        <v>0.459</v>
       </c>
       <c r="AF22" t="n">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>752</t>
         </is>
       </c>
       <c r="AH22" t="n">
-        <v>0.309</v>
+        <v>0.351</v>
       </c>
       <c r="AI22" t="n">
-        <v>404</v>
+        <v>329</v>
       </c>
       <c r="AJ22" t="n">
-        <v>563</v>
+        <v>436</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.718</v>
+        <v>0.755</v>
       </c>
       <c r="AL22" t="n">
-        <v>345</v>
+        <v>217</v>
       </c>
       <c r="AM22" t="n">
-        <v>806</v>
+        <v>743</v>
       </c>
       <c r="AN22" t="n">
-        <v>1151</v>
+        <v>960</v>
       </c>
       <c r="AO22" t="n">
-        <v>380</v>
+        <v>467</v>
       </c>
       <c r="AP22" t="n">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="AQ22" t="n">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AR22" t="n">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="AS22" t="n">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="AT22" t="n">
-        <v>2225</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="23">
@@ -3736,144 +3740,144 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>IUPUI</t>
+          <t>Detroit Mercy</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>Loyola Marymount</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23" t="n">
-        <v>67.7</v>
+        <v>67.8</v>
       </c>
       <c r="I23" t="n">
-        <v>786</v>
+        <v>876</v>
       </c>
       <c r="J23" t="n">
-        <v>1718</v>
+        <v>2024</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.433</v>
       </c>
       <c r="L23" t="n">
-        <v>146</v>
+        <v>338</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>875</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.297</v>
+        <v>0.386</v>
       </c>
       <c r="O23" t="n">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="P23" t="n">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.768</v>
       </c>
       <c r="R23" t="n">
-        <v>297</v>
+        <v>433</v>
       </c>
       <c r="S23" t="n">
-        <v>714</v>
+        <v>779</v>
       </c>
       <c r="T23" t="n">
-        <v>1011</v>
+        <v>1212</v>
       </c>
       <c r="U23" t="n">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="V23" t="n">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="W23" t="n">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="X23" t="n">
-        <v>506</v>
+        <v>390</v>
       </c>
       <c r="Y23" t="n">
-        <v>570</v>
+        <v>529</v>
       </c>
       <c r="Z23" t="n">
-        <v>2089</v>
+        <v>2527</v>
       </c>
       <c r="AA23" t="n">
         <v>31</v>
       </c>
       <c r="AB23" t="n">
-        <v>65.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>720</v>
+        <v>832</v>
       </c>
       <c r="AD23" t="n">
-        <v>1664</v>
+        <v>1831</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.433</v>
+        <v>0.454</v>
       </c>
       <c r="AF23" t="n">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>792</t>
         </is>
       </c>
       <c r="AH23" t="n">
-        <v>0.325</v>
+        <v>0.365</v>
       </c>
       <c r="AI23" t="n">
-        <v>317</v>
+        <v>382</v>
       </c>
       <c r="AJ23" t="n">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.619</v>
+        <v>0.671</v>
       </c>
       <c r="AL23" t="n">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="AM23" t="n">
-        <v>755</v>
+        <v>791</v>
       </c>
       <c r="AN23" t="n">
-        <v>1017</v>
+        <v>1119</v>
       </c>
       <c r="AO23" t="n">
-        <v>454</v>
+        <v>366</v>
       </c>
       <c r="AP23" t="n">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="AQ23" t="n">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="AR23" t="n">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AS23" t="n">
-        <v>482</v>
+        <v>602</v>
       </c>
       <c r="AT23" t="n">
-        <v>1949</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="24">
@@ -3882,144 +3886,144 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Prairie View</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Northern Iowa</t>
+          <t>Charleston Southern</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H24" t="n">
-        <v>69.7</v>
+        <v>61.5</v>
       </c>
       <c r="I24" t="n">
-        <v>773</v>
+        <v>885</v>
       </c>
       <c r="J24" t="n">
-        <v>1914</v>
+        <v>1871</v>
       </c>
       <c r="K24" t="n">
-        <v>0.404</v>
+        <v>0.473</v>
       </c>
       <c r="L24" t="n">
-        <v>191</v>
+        <v>291</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>772</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.303</v>
+        <v>0.377</v>
       </c>
       <c r="O24" t="n">
-        <v>431</v>
+        <v>349</v>
       </c>
       <c r="P24" t="n">
-        <v>629</v>
+        <v>465</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.751</v>
       </c>
       <c r="R24" t="n">
-        <v>378</v>
+        <v>231</v>
       </c>
       <c r="S24" t="n">
-        <v>745</v>
+        <v>835</v>
       </c>
       <c r="T24" t="n">
-        <v>1123</v>
+        <v>1066</v>
       </c>
       <c r="U24" t="n">
-        <v>352</v>
+        <v>469</v>
       </c>
       <c r="V24" t="n">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="W24" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="X24" t="n">
-        <v>438</v>
+        <v>382</v>
       </c>
       <c r="Y24" t="n">
-        <v>610</v>
+        <v>489</v>
       </c>
       <c r="Z24" t="n">
-        <v>2168</v>
+        <v>2410</v>
       </c>
       <c r="AA24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB24" t="n">
-        <v>67.8</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="AD24" t="n">
-        <v>1788</v>
+        <v>1850</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.453</v>
+        <v>0.443</v>
       </c>
       <c r="AF24" t="n">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>731</t>
         </is>
       </c>
       <c r="AH24" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="AI24" t="n">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="AJ24" t="n">
-        <v>554</v>
+        <v>498</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.697</v>
+        <v>0.727</v>
       </c>
       <c r="AL24" t="n">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="AM24" t="n">
-        <v>806</v>
+        <v>731</v>
       </c>
       <c r="AN24" t="n">
-        <v>1050</v>
+        <v>1091</v>
       </c>
       <c r="AO24" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP24" t="n">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="AQ24" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AR24" t="n">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="AS24" t="n">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="AT24" t="n">
-        <v>2244</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="25">
@@ -4028,18 +4032,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Austin Peay</t>
+          <t>Coastal Carolina</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Southern Illinois</t>
+          <t>College of Charleston</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -4047,125 +4051,125 @@
         <v>31</v>
       </c>
       <c r="H25" t="n">
-        <v>66.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>743</v>
+        <v>816</v>
       </c>
       <c r="J25" t="n">
-        <v>1790</v>
+        <v>1880</v>
       </c>
       <c r="K25" t="n">
-        <v>0.415</v>
+        <v>0.434</v>
       </c>
       <c r="L25" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>705</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.322</v>
+        <v>0.316</v>
       </c>
       <c r="O25" t="n">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="P25" t="n">
-        <v>495</v>
+        <v>533</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.725</v>
+        <v>0.784</v>
       </c>
       <c r="R25" t="n">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="S25" t="n">
-        <v>660</v>
+        <v>804</v>
       </c>
       <c r="T25" t="n">
-        <v>972</v>
+        <v>1153</v>
       </c>
       <c r="U25" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="V25" t="n">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="W25" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="X25" t="n">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="Y25" t="n">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="Z25" t="n">
-        <v>2067</v>
+        <v>2273</v>
       </c>
       <c r="AA25" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB25" t="n">
-        <v>64.8</v>
+        <v>70.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>769</v>
+        <v>959</v>
       </c>
       <c r="AD25" t="n">
-        <v>1716</v>
+        <v>2202</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.448</v>
+        <v>0.436</v>
       </c>
       <c r="AF25" t="n">
+        <v>348</v>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>538</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>723</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>472</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>939</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1411</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>478</v>
+      </c>
+      <c r="AP25" t="n">
         <v>259</v>
       </c>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>795</t>
-        </is>
-      </c>
-      <c r="AH25" t="n">
-        <v>0.326</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>371</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>513</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0.723</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>228</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>812</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1040</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>459</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>238</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="AR25" t="n">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AS25" t="n">
-        <v>539</v>
+        <v>590</v>
       </c>
       <c r="AT25" t="n">
-        <v>2168</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="26">
@@ -4174,144 +4178,2626 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12-12-2023</t>
+          <t>12-18-2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Oral Roberts</t>
+          <t>George Mason</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Texas Tech</t>
+          <t>East Carolina</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
+        <v>33</v>
+      </c>
+      <c r="H26" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="I26" t="n">
+        <v>800</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1774</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="L26" t="n">
+        <v>240</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O26" t="n">
+        <v>428</v>
+      </c>
+      <c r="P26" t="n">
+        <v>657</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="R26" t="n">
+        <v>302</v>
+      </c>
+      <c r="S26" t="n">
+        <v>878</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1180</v>
+      </c>
+      <c r="U26" t="n">
+        <v>452</v>
+      </c>
+      <c r="V26" t="n">
+        <v>152</v>
+      </c>
+      <c r="W26" t="n">
+        <v>103</v>
+      </c>
+      <c r="X26" t="n">
+        <v>453</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>568</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>2268</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>769</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1896</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>249</v>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>484</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>704</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>403</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>820</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1223</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>433</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>214</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>87</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>435</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>583</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Eastern Illinois</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Northern Illinois</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>31</v>
+      </c>
+      <c r="H27" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>797</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="L27" t="n">
+        <v>162</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="O27" t="n">
+        <v>378</v>
+      </c>
+      <c r="P27" t="n">
+        <v>593</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="R27" t="n">
+        <v>288</v>
+      </c>
+      <c r="S27" t="n">
+        <v>764</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1052</v>
+      </c>
+      <c r="U27" t="n">
+        <v>449</v>
+      </c>
+      <c r="V27" t="n">
+        <v>260</v>
+      </c>
+      <c r="W27" t="n">
+        <v>105</v>
+      </c>
+      <c r="X27" t="n">
+        <v>419</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>559</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>2134</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>837</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1816</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>236</v>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>394</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>604</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>279</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>781</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1060</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>402</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>207</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>74</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>458</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>617</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Omaha</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Texas Southern</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>32</v>
+      </c>
+      <c r="H28" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>797</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1805</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="L28" t="n">
+        <v>183</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="O28" t="n">
+        <v>415</v>
+      </c>
+      <c r="P28" t="n">
+        <v>535</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="R28" t="n">
+        <v>259</v>
+      </c>
+      <c r="S28" t="n">
+        <v>778</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1037</v>
+      </c>
+      <c r="U28" t="n">
+        <v>380</v>
+      </c>
+      <c r="V28" t="n">
+        <v>172</v>
+      </c>
+      <c r="W28" t="n">
+        <v>92</v>
+      </c>
+      <c r="X28" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>584</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>2192</v>
+      </c>
+      <c r="AA28" t="n">
         <v>35</v>
       </c>
-      <c r="H26" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1058</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2231</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="AB28" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>894</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2095</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>163</v>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>471</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>709</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>405</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>908</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1313</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>412</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>235</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>116</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>511</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>657</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>UNC Wilmington</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Davidson</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>34</v>
+      </c>
+      <c r="H29" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="I29" t="n">
+        <v>813</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1832</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="L29" t="n">
+        <v>209</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="O29" t="n">
+        <v>508</v>
+      </c>
+      <c r="P29" t="n">
+        <v>697</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="R29" t="n">
+        <v>324</v>
+      </c>
+      <c r="S29" t="n">
+        <v>806</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1130</v>
+      </c>
+      <c r="U29" t="n">
+        <v>365</v>
+      </c>
+      <c r="V29" t="n">
+        <v>230</v>
+      </c>
+      <c r="W29" t="n">
+        <v>95</v>
+      </c>
+      <c r="X29" t="n">
+        <v>408</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>624</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>2343</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>785</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1774</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>216</v>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>450</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>602</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>265</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>789</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1054</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>420</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>172</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>347</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>485</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Norfolk State</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>High Point</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>33</v>
+      </c>
+      <c r="H30" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="I30" t="n">
+        <v>876</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1854</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="L30" t="n">
+        <v>225</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="O30" t="n">
+        <v>524</v>
+      </c>
+      <c r="P30" t="n">
+        <v>704</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="R30" t="n">
+        <v>362</v>
+      </c>
+      <c r="S30" t="n">
+        <v>823</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1185</v>
+      </c>
+      <c r="U30" t="n">
+        <v>424</v>
+      </c>
+      <c r="V30" t="n">
+        <v>234</v>
+      </c>
+      <c r="W30" t="n">
+        <v>122</v>
+      </c>
+      <c r="X30" t="n">
+        <v>434</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>598</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>2501</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>813</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1834</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>234</v>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>452</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>722</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>362</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>817</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1179</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>383</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>203</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>152</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>438</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>573</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Quinnipiac</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Holy Cross</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>32</v>
+      </c>
+      <c r="H31" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>826</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1908</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="L31" t="n">
+        <v>263</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="O31" t="n">
+        <v>420</v>
+      </c>
+      <c r="P31" t="n">
+        <v>630</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="R31" t="n">
+        <v>365</v>
+      </c>
+      <c r="S31" t="n">
+        <v>832</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1197</v>
+      </c>
+      <c r="U31" t="n">
+        <v>419</v>
+      </c>
+      <c r="V31" t="n">
+        <v>196</v>
+      </c>
+      <c r="W31" t="n">
+        <v>82</v>
+      </c>
+      <c r="X31" t="n">
+        <v>404</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>525</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>2335</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>812</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1862</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>219</v>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>293</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>471</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>255</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>785</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1040</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>398</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>203</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>89</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>387</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>514</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Quinnipiac</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>32</v>
+      </c>
+      <c r="H32" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>826</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1908</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="L32" t="n">
+        <v>263</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="O32" t="n">
+        <v>420</v>
+      </c>
+      <c r="P32" t="n">
+        <v>630</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="R32" t="n">
+        <v>365</v>
+      </c>
+      <c r="S32" t="n">
+        <v>832</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1197</v>
+      </c>
+      <c r="U32" t="n">
+        <v>419</v>
+      </c>
+      <c r="V32" t="n">
+        <v>196</v>
+      </c>
+      <c r="W32" t="n">
+        <v>82</v>
+      </c>
+      <c r="X32" t="n">
+        <v>404</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>525</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>2335</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>793</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1746</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>369</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>502</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>339</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>746</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1085</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>341</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>161</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>345</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>548</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>California Baptist</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Louisiana Tech</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>33</v>
+      </c>
+      <c r="H33" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="I33" t="n">
+        <v>811</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1898</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="L33" t="n">
+        <v>276</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O33" t="n">
+        <v>393</v>
+      </c>
+      <c r="P33" t="n">
+        <v>592</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="R33" t="n">
+        <v>362</v>
+      </c>
+      <c r="S33" t="n">
+        <v>865</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1227</v>
+      </c>
+      <c r="U33" t="n">
+        <v>471</v>
+      </c>
+      <c r="V33" t="n">
+        <v>146</v>
+      </c>
+      <c r="W33" t="n">
+        <v>103</v>
+      </c>
+      <c r="X33" t="n">
+        <v>379</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>569</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>2291</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>854</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1930</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>281</v>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>394</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>546</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>359</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>786</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1145</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>408</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>260</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>87</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>451</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>570</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Oakland</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Michigan State</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>32</v>
+      </c>
+      <c r="H34" t="n">
+        <v>69</v>
+      </c>
+      <c r="I34" t="n">
+        <v>823</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1892</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="L34" t="n">
+        <v>232</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="O34" t="n">
+        <v>469</v>
+      </c>
+      <c r="P34" t="n">
+        <v>604</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="R34" t="n">
+        <v>268</v>
+      </c>
+      <c r="S34" t="n">
+        <v>709</v>
+      </c>
+      <c r="T34" t="n">
+        <v>977</v>
+      </c>
+      <c r="U34" t="n">
+        <v>384</v>
+      </c>
+      <c r="V34" t="n">
+        <v>239</v>
+      </c>
+      <c r="W34" t="n">
+        <v>84</v>
+      </c>
+      <c r="X34" t="n">
+        <v>339</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>448</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>2347</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>879</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1944</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>252</v>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="AH34" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>401</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>528</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>307</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>906</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1213</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>497</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>160</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>102</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>370</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>557</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Siena</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Mount St. Mary's</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>32</v>
+      </c>
+      <c r="H35" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="I35" t="n">
+        <v>766</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1769</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="L35" t="n">
+        <v>213</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="O35" t="n">
+        <v>450</v>
+      </c>
+      <c r="P35" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="R35" t="n">
+        <v>323</v>
+      </c>
+      <c r="S35" t="n">
+        <v>775</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1098</v>
+      </c>
+      <c r="U35" t="n">
+        <v>409</v>
+      </c>
+      <c r="V35" t="n">
+        <v>182</v>
+      </c>
+      <c r="W35" t="n">
+        <v>135</v>
+      </c>
+      <c r="X35" t="n">
+        <v>420</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>547</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>2195</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>771</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1818</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>220</v>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>339</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>463</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>308</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>802</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1110</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>410</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>182</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>82</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>450</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>540</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Cornell</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Syracuse</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>28</v>
+      </c>
+      <c r="H36" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>816</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1738</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L36" t="n">
+        <v>300</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="O36" t="n">
+        <v>355</v>
+      </c>
+      <c r="P36" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="R36" t="n">
+        <v>291</v>
+      </c>
+      <c r="S36" t="n">
+        <v>673</v>
+      </c>
+      <c r="T36" t="n">
+        <v>964</v>
+      </c>
+      <c r="U36" t="n">
+        <v>489</v>
+      </c>
+      <c r="V36" t="n">
+        <v>272</v>
+      </c>
+      <c r="W36" t="n">
+        <v>63</v>
+      </c>
+      <c r="X36" t="n">
+        <v>348</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>466</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>2287</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>871</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1883</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>198</v>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>432</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>577</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>324</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>789</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1113</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>459</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>241</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>161</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>373</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>427</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Northern Kentucky</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Tennessee Tech</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>35</v>
+      </c>
+      <c r="H37" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>851</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1997</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="L37" t="n">
+        <v>283</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="O37" t="n">
+        <v>387</v>
+      </c>
+      <c r="P37" t="n">
+        <v>556</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="R37" t="n">
+        <v>394</v>
+      </c>
+      <c r="S37" t="n">
+        <v>742</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1136</v>
+      </c>
+      <c r="U37" t="n">
+        <v>468</v>
+      </c>
+      <c r="V37" t="n">
+        <v>329</v>
+      </c>
+      <c r="W37" t="n">
+        <v>89</v>
+      </c>
+      <c r="X37" t="n">
+        <v>395</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>535</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>2372</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>860</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1967</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>302</v>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>410</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>570</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>310</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1159</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>476</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>207</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>416</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>527</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Abilene Christian</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Western Kentucky</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>30</v>
+      </c>
+      <c r="H38" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="I38" t="n">
+        <v>812</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="L38" t="n">
+        <v>211</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="O38" t="n">
+        <v>414</v>
+      </c>
+      <c r="P38" t="n">
+        <v>573</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="R38" t="n">
+        <v>307</v>
+      </c>
+      <c r="S38" t="n">
+        <v>665</v>
+      </c>
+      <c r="T38" t="n">
+        <v>972</v>
+      </c>
+      <c r="U38" t="n">
+        <v>471</v>
+      </c>
+      <c r="V38" t="n">
+        <v>264</v>
+      </c>
+      <c r="W38" t="n">
+        <v>71</v>
+      </c>
+      <c r="X38" t="n">
+        <v>379</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>617</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>2249</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>839</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1907</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>249</v>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>428</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>601</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>300</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>852</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1152</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>416</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>204</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>173</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>383</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>489</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Texas-Rio Grande Valley</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Chicago State</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>32</v>
+      </c>
+      <c r="H39" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>868</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1852</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="L39" t="n">
+        <v>222</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="O39" t="n">
+        <v>560</v>
+      </c>
+      <c r="P39" t="n">
+        <v>802</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="R39" t="n">
+        <v>345</v>
+      </c>
+      <c r="S39" t="n">
+        <v>866</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1211</v>
+      </c>
+      <c r="U39" t="n">
+        <v>505</v>
+      </c>
+      <c r="V39" t="n">
+        <v>151</v>
+      </c>
+      <c r="W39" t="n">
+        <v>104</v>
+      </c>
+      <c r="X39" t="n">
+        <v>514</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>641</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>2518</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>760</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1757</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>256</v>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>404</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>555</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>365</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>725</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1090</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>379</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>175</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>83</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>422</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>561</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Jacksonville State</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Tarleton State</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>31</v>
+      </c>
+      <c r="H40" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>747</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1705</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="L40" t="n">
+        <v>281</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="O40" t="n">
+        <v>391</v>
+      </c>
+      <c r="P40" t="n">
+        <v>559</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="R40" t="n">
+        <v>318</v>
+      </c>
+      <c r="S40" t="n">
+        <v>799</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1117</v>
+      </c>
+      <c r="U40" t="n">
+        <v>381</v>
+      </c>
+      <c r="V40" t="n">
+        <v>172</v>
+      </c>
+      <c r="W40" t="n">
+        <v>74</v>
+      </c>
+      <c r="X40" t="n">
+        <v>410</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>510</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>2166</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>847</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1868</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>163</v>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>589</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>837</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>325</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>752</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1077</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>437</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>330</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>96</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>424</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>694</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Mississippi Valley State</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>32</v>
+      </c>
+      <c r="H41" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>683</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1681</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="L41" t="n">
+        <v>162</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="O41" t="n">
+        <v>425</v>
+      </c>
+      <c r="P41" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="R41" t="n">
+        <v>316</v>
+      </c>
+      <c r="S41" t="n">
+        <v>711</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1027</v>
+      </c>
+      <c r="U41" t="n">
+        <v>321</v>
+      </c>
+      <c r="V41" t="n">
+        <v>243</v>
+      </c>
+      <c r="W41" t="n">
+        <v>65</v>
+      </c>
+      <c r="X41" t="n">
+        <v>518</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>573</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1953</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>835</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1932</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>217</v>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>662</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>872</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>435</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>853</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1288</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>439</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>235</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>82</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>430</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>637</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Eastern Washington</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Cal Poly</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>34</v>
+      </c>
+      <c r="H42" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="I42" t="n">
+        <v>931</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1901</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L42" t="n">
+        <v>300</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="O42" t="n">
+        <v>445</v>
+      </c>
+      <c r="P42" t="n">
+        <v>589</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="R42" t="n">
+        <v>305</v>
+      </c>
+      <c r="S42" t="n">
+        <v>917</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1222</v>
+      </c>
+      <c r="U42" t="n">
+        <v>523</v>
+      </c>
+      <c r="V42" t="n">
+        <v>176</v>
+      </c>
+      <c r="W42" t="n">
+        <v>107</v>
+      </c>
+      <c r="X42" t="n">
+        <v>461</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>591</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>2607</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>715</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1733</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>181</v>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>395</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>531</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>281</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>799</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>341</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>181</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>82</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>457</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>653</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>12-18-2023</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portland State</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Fresno State</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>31</v>
+      </c>
+      <c r="H43" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>835</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1865</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="L43" t="n">
+        <v>234</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O43" t="n">
+        <v>459</v>
+      </c>
+      <c r="P43" t="n">
+        <v>631</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="R43" t="n">
+        <v>289</v>
+      </c>
+      <c r="S43" t="n">
+        <v>685</v>
+      </c>
+      <c r="T43" t="n">
+        <v>974</v>
+      </c>
+      <c r="U43" t="n">
+        <v>431</v>
+      </c>
+      <c r="V43" t="n">
+        <v>220</v>
+      </c>
+      <c r="W43" t="n">
+        <v>105</v>
+      </c>
+      <c r="X43" t="n">
         <v>375</v>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1027</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="O26" t="n">
-        <v>424</v>
-      </c>
-      <c r="P26" t="n">
-        <v>548</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.774</v>
-      </c>
-      <c r="R26" t="n">
-        <v>313</v>
-      </c>
-      <c r="S26" t="n">
-        <v>975</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1288</v>
-      </c>
-      <c r="U26" t="n">
-        <v>514</v>
-      </c>
-      <c r="V26" t="n">
-        <v>237</v>
-      </c>
-      <c r="W26" t="n">
-        <v>188</v>
-      </c>
-      <c r="X26" t="n">
-        <v>329</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>453</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>2915</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>831</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>1810</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0.459</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>230</v>
-      </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>666</t>
-        </is>
-      </c>
-      <c r="AH26" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>455</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>630</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>334</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>791</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>1125</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>413</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>234</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>93</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>441</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>494</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2347</v>
+      <c r="Y43" t="n">
+        <v>700</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>2363</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>64</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>720</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1673</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>210</v>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>324</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>420</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>248</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>690</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>938</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>382</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>196</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>103</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>359</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>499</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1974</v>
       </c>
     </row>
   </sheetData>

--- a/cbb_predict_raw.xlsx
+++ b/cbb_predict_raw.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT43"/>
+  <dimension ref="A1:AT34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,148 +666,146 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UCLA</t>
+          <t>Purdue</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ohio State</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>12</v>
-      </c>
+          <t>Maryland</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>67.2</v>
+        <v>72</v>
       </c>
       <c r="I2" t="n">
-        <v>1033</v>
+        <v>392</v>
       </c>
       <c r="J2" t="n">
-        <v>2245</v>
+        <v>786</v>
       </c>
       <c r="K2" t="n">
-        <v>0.46</v>
+        <v>0.499</v>
       </c>
       <c r="L2" t="n">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>281</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.349</v>
+        <v>0.384</v>
       </c>
       <c r="O2" t="n">
-        <v>450</v>
+        <v>236</v>
       </c>
       <c r="P2" t="n">
-        <v>616</v>
+        <v>330</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.731</v>
+        <v>0.715</v>
       </c>
       <c r="R2" t="n">
-        <v>418</v>
+        <v>151</v>
       </c>
       <c r="S2" t="n">
-        <v>889</v>
+        <v>386</v>
       </c>
       <c r="T2" t="n">
-        <v>1307</v>
+        <v>537</v>
       </c>
       <c r="U2" t="n">
-        <v>538</v>
+        <v>247</v>
       </c>
       <c r="V2" t="n">
-        <v>310</v>
+        <v>86</v>
       </c>
       <c r="W2" t="n">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="X2" t="n">
-        <v>371</v>
+        <v>155</v>
       </c>
       <c r="Y2" t="n">
-        <v>573</v>
+        <v>181</v>
       </c>
       <c r="Z2" t="n">
-        <v>2743</v>
+        <v>1128</v>
       </c>
       <c r="AA2" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.90000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>948</v>
+        <v>309</v>
       </c>
       <c r="AD2" t="n">
-        <v>2052</v>
+        <v>744</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.462</v>
+        <v>0.415</v>
       </c>
       <c r="AF2" t="n">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>302</t>
         </is>
       </c>
       <c r="AH2" t="n">
-        <v>0.368</v>
+        <v>0.275</v>
       </c>
       <c r="AI2" t="n">
-        <v>403</v>
+        <v>250</v>
       </c>
       <c r="AJ2" t="n">
-        <v>545</v>
+        <v>360</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.739</v>
+        <v>0.694</v>
       </c>
       <c r="AL2" t="n">
-        <v>370</v>
+        <v>173</v>
       </c>
       <c r="AM2" t="n">
-        <v>887</v>
+        <v>318</v>
       </c>
       <c r="AN2" t="n">
-        <v>1257</v>
+        <v>491</v>
       </c>
       <c r="AO2" t="n">
-        <v>410</v>
+        <v>146</v>
       </c>
       <c r="AP2" t="n">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="AQ2" t="n">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="AR2" t="n">
-        <v>375</v>
+        <v>153</v>
       </c>
       <c r="AS2" t="n">
-        <v>573</v>
+        <v>234</v>
       </c>
       <c r="AT2" t="n">
-        <v>2538</v>
+        <v>951</v>
       </c>
     </row>
     <row r="3">
@@ -816,146 +814,146 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Oral Roberts</t>
+          <t>Michigan State</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kansas State</t>
+          <t>Iowa</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>71.5</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>1058</v>
+        <v>369</v>
       </c>
       <c r="J3" t="n">
-        <v>2231</v>
+        <v>772</v>
       </c>
       <c r="K3" t="n">
-        <v>0.474</v>
+        <v>0.478</v>
       </c>
       <c r="L3" t="n">
-        <v>375</v>
+        <v>84</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>247</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.365</v>
+        <v>0.34</v>
       </c>
       <c r="O3" t="n">
-        <v>424</v>
+        <v>182</v>
       </c>
       <c r="P3" t="n">
-        <v>548</v>
+        <v>261</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.697</v>
       </c>
       <c r="R3" t="n">
-        <v>313</v>
+        <v>141</v>
       </c>
       <c r="S3" t="n">
-        <v>975</v>
+        <v>344</v>
       </c>
       <c r="T3" t="n">
-        <v>1288</v>
+        <v>485</v>
       </c>
       <c r="U3" t="n">
-        <v>514</v>
+        <v>238</v>
       </c>
       <c r="V3" t="n">
-        <v>237</v>
+        <v>94</v>
       </c>
       <c r="W3" t="n">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="X3" t="n">
-        <v>329</v>
+        <v>142</v>
       </c>
       <c r="Y3" t="n">
-        <v>453</v>
+        <v>212</v>
       </c>
       <c r="Z3" t="n">
-        <v>2915</v>
+        <v>1004</v>
       </c>
       <c r="AA3" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.5</v>
+        <v>75.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>961</v>
+        <v>418</v>
       </c>
       <c r="AD3" t="n">
-        <v>2083</v>
+        <v>873</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.461</v>
+        <v>0.479</v>
       </c>
       <c r="AF3" t="n">
-        <v>258</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>273</t>
         </is>
       </c>
       <c r="AH3" t="n">
-        <v>0.343</v>
+        <v>0.333</v>
       </c>
       <c r="AI3" t="n">
-        <v>562</v>
+        <v>215</v>
       </c>
       <c r="AJ3" t="n">
-        <v>751</v>
+        <v>287</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="AL3" t="n">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="AM3" t="n">
-        <v>892</v>
+        <v>361</v>
       </c>
       <c r="AN3" t="n">
-        <v>1247</v>
+        <v>513</v>
       </c>
       <c r="AO3" t="n">
-        <v>611</v>
+        <v>256</v>
       </c>
       <c r="AP3" t="n">
-        <v>289</v>
+        <v>112</v>
       </c>
       <c r="AQ3" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="AR3" t="n">
-        <v>498</v>
+        <v>126</v>
       </c>
       <c r="AS3" t="n">
-        <v>644</v>
+        <v>198</v>
       </c>
       <c r="AT3" t="n">
-        <v>2742</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="4">
@@ -964,146 +962,146 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Evansville</t>
+          <t>Norfolk State</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Indiana</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
         <v>15</v>
       </c>
-      <c r="G4" t="n">
-        <v>32</v>
-      </c>
       <c r="H4" t="n">
-        <v>69.8</v>
+        <v>68.3</v>
       </c>
       <c r="I4" t="n">
+        <v>389</v>
+      </c>
+      <c r="J4" t="n">
+        <v>856</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="L4" t="n">
+        <v>105</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="O4" t="n">
+        <v>253</v>
+      </c>
+      <c r="P4" t="n">
+        <v>341</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="R4" t="n">
+        <v>168</v>
+      </c>
+      <c r="S4" t="n">
+        <v>349</v>
+      </c>
+      <c r="T4" t="n">
+        <v>517</v>
+      </c>
+      <c r="U4" t="n">
+        <v>180</v>
+      </c>
+      <c r="V4" t="n">
+        <v>142</v>
+      </c>
+      <c r="W4" t="n">
+        <v>41</v>
+      </c>
+      <c r="X4" t="n">
+        <v>169</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>301</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1136</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>316</v>
+      </c>
+      <c r="AD4" t="n">
         <v>729</v>
       </c>
-      <c r="J4" t="n">
-        <v>1839</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="L4" t="n">
-        <v>199</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>618</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>0.322</v>
-      </c>
-      <c r="O4" t="n">
-        <v>340</v>
-      </c>
-      <c r="P4" t="n">
-        <v>540</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="R4" t="n">
-        <v>252</v>
-      </c>
-      <c r="S4" t="n">
-        <v>752</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1004</v>
-      </c>
-      <c r="U4" t="n">
-        <v>328</v>
-      </c>
-      <c r="V4" t="n">
-        <v>224</v>
-      </c>
-      <c r="W4" t="n">
-        <v>62</v>
-      </c>
-      <c r="X4" t="n">
-        <v>392</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>520</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1997</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>994</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2044</v>
-      </c>
       <c r="AE4" t="n">
-        <v>0.486</v>
+        <v>0.433</v>
       </c>
       <c r="AF4" t="n">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>295</t>
         </is>
       </c>
       <c r="AH4" t="n">
-        <v>0.368</v>
+        <v>0.336</v>
       </c>
       <c r="AI4" t="n">
-        <v>428</v>
+        <v>194</v>
       </c>
       <c r="AJ4" t="n">
-        <v>602</v>
+        <v>253</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.711</v>
+        <v>0.767</v>
       </c>
       <c r="AL4" t="n">
-        <v>321</v>
+        <v>137</v>
       </c>
       <c r="AM4" t="n">
-        <v>929</v>
+        <v>336</v>
       </c>
       <c r="AN4" t="n">
-        <v>1250</v>
+        <v>473</v>
       </c>
       <c r="AO4" t="n">
-        <v>533</v>
+        <v>196</v>
       </c>
       <c r="AP4" t="n">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="AQ4" t="n">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="AR4" t="n">
-        <v>402</v>
+        <v>128</v>
       </c>
       <c r="AS4" t="n">
-        <v>599</v>
+        <v>208</v>
       </c>
       <c r="AT4" t="n">
-        <v>2616</v>
+        <v>925</v>
       </c>
     </row>
     <row r="5">
@@ -1112,144 +1110,146 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Morgan State</t>
+          <t>East Carolina</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Campbell</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Florida Atlantic</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
       <c r="G5" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>73.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>863</v>
+        <v>329</v>
       </c>
       <c r="J5" t="n">
-        <v>1911</v>
+        <v>756</v>
       </c>
       <c r="K5" t="n">
-        <v>0.452</v>
+        <v>0.435</v>
       </c>
       <c r="L5" t="n">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>287</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.369</v>
+        <v>0.307</v>
       </c>
       <c r="O5" t="n">
-        <v>391</v>
+        <v>218</v>
       </c>
       <c r="P5" t="n">
-        <v>568</v>
+        <v>314</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="R5" t="n">
-        <v>362</v>
+        <v>173</v>
       </c>
       <c r="S5" t="n">
-        <v>712</v>
+        <v>306</v>
       </c>
       <c r="T5" t="n">
-        <v>1074</v>
+        <v>479</v>
       </c>
       <c r="U5" t="n">
-        <v>479</v>
+        <v>162</v>
       </c>
       <c r="V5" t="n">
-        <v>303</v>
+        <v>109</v>
       </c>
       <c r="W5" t="n">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="X5" t="n">
-        <v>500</v>
+        <v>143</v>
       </c>
       <c r="Y5" t="n">
-        <v>647</v>
+        <v>219</v>
       </c>
       <c r="Z5" t="n">
-        <v>2323</v>
+        <v>964</v>
       </c>
       <c r="AA5" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>64.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>830</v>
+        <v>392</v>
       </c>
       <c r="AD5" t="n">
-        <v>1777</v>
+        <v>783</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.467</v>
+        <v>0.501</v>
       </c>
       <c r="AF5" t="n">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>294</t>
         </is>
       </c>
       <c r="AH5" t="n">
-        <v>0.334</v>
+        <v>0.367</v>
       </c>
       <c r="AI5" t="n">
-        <v>486</v>
+        <v>190</v>
       </c>
       <c r="AJ5" t="n">
-        <v>691</v>
+        <v>279</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.703</v>
+        <v>0.681</v>
       </c>
       <c r="AL5" t="n">
-        <v>267</v>
+        <v>144</v>
       </c>
       <c r="AM5" t="n">
-        <v>799</v>
+        <v>348</v>
       </c>
       <c r="AN5" t="n">
-        <v>1066</v>
+        <v>492</v>
       </c>
       <c r="AO5" t="n">
-        <v>416</v>
+        <v>194</v>
       </c>
       <c r="AP5" t="n">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="AQ5" t="n">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="AR5" t="n">
-        <v>404</v>
+        <v>155</v>
       </c>
       <c r="AS5" t="n">
-        <v>554</v>
+        <v>219</v>
       </c>
       <c r="AT5" t="n">
-        <v>2374</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="6">
@@ -1258,144 +1258,146 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Manhattan</t>
+          <t>Northwestern</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fairfield</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>67.2</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>733</v>
+        <v>322</v>
       </c>
       <c r="J6" t="n">
-        <v>1682</v>
+        <v>694</v>
       </c>
       <c r="K6" t="n">
-        <v>0.436</v>
+        <v>0.464</v>
       </c>
       <c r="L6" t="n">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>262</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.333</v>
+        <v>0.359</v>
       </c>
       <c r="O6" t="n">
-        <v>343</v>
+        <v>137</v>
       </c>
       <c r="P6" t="n">
-        <v>520</v>
+        <v>195</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.66</v>
+        <v>0.703</v>
       </c>
       <c r="R6" t="n">
-        <v>274</v>
+        <v>106</v>
       </c>
       <c r="S6" t="n">
-        <v>678</v>
+        <v>279</v>
       </c>
       <c r="T6" t="n">
-        <v>952</v>
+        <v>385</v>
       </c>
       <c r="U6" t="n">
-        <v>370</v>
+        <v>204</v>
       </c>
       <c r="V6" t="n">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="W6" t="n">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="X6" t="n">
-        <v>406</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="n">
-        <v>492</v>
+        <v>199</v>
       </c>
       <c r="Z6" t="n">
-        <v>2016</v>
+        <v>875</v>
       </c>
       <c r="AA6" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AB6" t="n">
-        <v>64.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="AC6" t="n">
-        <v>690</v>
+        <v>359</v>
       </c>
       <c r="AD6" t="n">
-        <v>1681</v>
+        <v>760</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.41</v>
+        <v>0.472</v>
       </c>
       <c r="AF6" t="n">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>320</t>
         </is>
       </c>
       <c r="AH6" t="n">
-        <v>0.287</v>
+        <v>0.334</v>
       </c>
       <c r="AI6" t="n">
-        <v>454</v>
+        <v>170</v>
       </c>
       <c r="AJ6" t="n">
-        <v>627</v>
+        <v>243</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.724</v>
+        <v>0.7</v>
       </c>
       <c r="AL6" t="n">
-        <v>305</v>
+        <v>164</v>
       </c>
       <c r="AM6" t="n">
-        <v>740</v>
+        <v>389</v>
       </c>
       <c r="AN6" t="n">
-        <v>1045</v>
+        <v>553</v>
       </c>
       <c r="AO6" t="n">
-        <v>296</v>
+        <v>158</v>
       </c>
       <c r="AP6" t="n">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="AQ6" t="n">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="AR6" t="n">
-        <v>367</v>
+        <v>151</v>
       </c>
       <c r="AS6" t="n">
-        <v>472</v>
+        <v>169</v>
       </c>
       <c r="AT6" t="n">
-        <v>2012</v>
+        <v>995</v>
       </c>
     </row>
     <row r="7">
@@ -1404,144 +1406,144 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Delaware State</t>
+          <t>Northwestern</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Wake Forest</t>
+          <t>Penn State</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>69.59999999999999</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>714</v>
+        <v>322</v>
       </c>
       <c r="J7" t="n">
-        <v>1725</v>
+        <v>694</v>
       </c>
       <c r="K7" t="n">
-        <v>0.414</v>
+        <v>0.464</v>
       </c>
       <c r="L7" t="n">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>262</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.315</v>
+        <v>0.359</v>
       </c>
       <c r="O7" t="n">
-        <v>340</v>
+        <v>137</v>
       </c>
       <c r="P7" t="n">
-        <v>494</v>
+        <v>195</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.703</v>
       </c>
       <c r="R7" t="n">
-        <v>336</v>
+        <v>106</v>
       </c>
       <c r="S7" t="n">
-        <v>711</v>
+        <v>279</v>
       </c>
       <c r="T7" t="n">
-        <v>1047</v>
+        <v>385</v>
       </c>
       <c r="U7" t="n">
-        <v>372</v>
+        <v>204</v>
       </c>
       <c r="V7" t="n">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="W7" t="n">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="X7" t="n">
-        <v>481</v>
+        <v>108</v>
       </c>
       <c r="Y7" t="n">
-        <v>551</v>
+        <v>199</v>
       </c>
       <c r="Z7" t="n">
-        <v>1939</v>
+        <v>875</v>
       </c>
       <c r="AA7" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>70.09999999999999</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>878</v>
+        <v>348</v>
       </c>
       <c r="AD7" t="n">
-        <v>1909</v>
+        <v>793</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.46</v>
+        <v>0.439</v>
       </c>
       <c r="AF7" t="n">
-        <v>315</v>
+        <v>105</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>328</t>
         </is>
       </c>
       <c r="AH7" t="n">
-        <v>0.364</v>
+        <v>0.32</v>
       </c>
       <c r="AI7" t="n">
-        <v>457</v>
+        <v>206</v>
       </c>
       <c r="AJ7" t="n">
-        <v>613</v>
+        <v>282</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.746</v>
+        <v>0.73</v>
       </c>
       <c r="AL7" t="n">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="AM7" t="n">
-        <v>854</v>
+        <v>295</v>
       </c>
       <c r="AN7" t="n">
-        <v>1129</v>
+        <v>433</v>
       </c>
       <c r="AO7" t="n">
-        <v>444</v>
+        <v>152</v>
       </c>
       <c r="AP7" t="n">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="AQ7" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AR7" t="n">
-        <v>399</v>
+        <v>148</v>
       </c>
       <c r="AS7" t="n">
-        <v>528</v>
+        <v>230</v>
       </c>
       <c r="AT7" t="n">
-        <v>2528</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="8">
@@ -1550,144 +1552,146 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chicago State</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Alabama A&amp;M</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Colorado State</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>15</v>
+      </c>
       <c r="G8" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>66.8</v>
+        <v>74.7</v>
       </c>
       <c r="I8" t="n">
-        <v>760</v>
+        <v>399</v>
       </c>
       <c r="J8" t="n">
-        <v>1757</v>
+        <v>852</v>
       </c>
       <c r="K8" t="n">
-        <v>0.433</v>
+        <v>0.468</v>
       </c>
       <c r="L8" t="n">
+        <v>87</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="O8" t="n">
+        <v>214</v>
+      </c>
+      <c r="P8" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="R8" t="n">
+        <v>168</v>
+      </c>
+      <c r="S8" t="n">
+        <v>370</v>
+      </c>
+      <c r="T8" t="n">
+        <v>538</v>
+      </c>
+      <c r="U8" t="n">
+        <v>209</v>
+      </c>
+      <c r="V8" t="n">
+        <v>130</v>
+      </c>
+      <c r="W8" t="n">
+        <v>55</v>
+      </c>
+      <c r="X8" t="n">
+        <v>138</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>245</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>395</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>742</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>113</v>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>198</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>256</v>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>755</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="O8" t="n">
-        <v>404</v>
-      </c>
-      <c r="P8" t="n">
-        <v>555</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.728</v>
-      </c>
-      <c r="R8" t="n">
-        <v>365</v>
-      </c>
-      <c r="S8" t="n">
-        <v>725</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1090</v>
-      </c>
-      <c r="U8" t="n">
-        <v>379</v>
-      </c>
-      <c r="V8" t="n">
-        <v>175</v>
-      </c>
-      <c r="W8" t="n">
-        <v>83</v>
-      </c>
-      <c r="X8" t="n">
-        <v>422</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>561</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>2180</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>33</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>823</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1868</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.441</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>226</v>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AH8" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>425</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>649</v>
-      </c>
       <c r="AK8" t="n">
-        <v>0.655</v>
+        <v>0.773</v>
       </c>
       <c r="AL8" t="n">
-        <v>334</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="n">
-        <v>745</v>
+        <v>328</v>
       </c>
       <c r="AN8" t="n">
-        <v>1079</v>
+        <v>418</v>
       </c>
       <c r="AO8" t="n">
-        <v>419</v>
+        <v>275</v>
       </c>
       <c r="AP8" t="n">
-        <v>264</v>
+        <v>95</v>
       </c>
       <c r="AQ8" t="n">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="AR8" t="n">
-        <v>498</v>
+        <v>131</v>
       </c>
       <c r="AS8" t="n">
-        <v>624</v>
+        <v>219</v>
       </c>
       <c r="AT8" t="n">
-        <v>2297</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="9">
@@ -1696,144 +1700,146 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Duquesne</t>
+          <t>Syracuse</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bradley</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>Duke</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>16</v>
+      </c>
       <c r="G9" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>69.40000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>897</v>
+        <v>373</v>
       </c>
       <c r="J9" t="n">
-        <v>2052</v>
+        <v>818</v>
       </c>
       <c r="K9" t="n">
-        <v>0.437</v>
+        <v>0.456</v>
       </c>
       <c r="L9" t="n">
-        <v>302</v>
+        <v>92</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>281</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.366</v>
+        <v>0.327</v>
       </c>
       <c r="O9" t="n">
-        <v>376</v>
+        <v>181</v>
       </c>
       <c r="P9" t="n">
-        <v>542</v>
+        <v>247</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.694</v>
+        <v>0.733</v>
       </c>
       <c r="R9" t="n">
-        <v>410</v>
+        <v>141</v>
       </c>
       <c r="S9" t="n">
-        <v>767</v>
+        <v>354</v>
       </c>
       <c r="T9" t="n">
-        <v>1177</v>
+        <v>495</v>
       </c>
       <c r="U9" t="n">
-        <v>505</v>
+        <v>183</v>
       </c>
       <c r="V9" t="n">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="W9" t="n">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="X9" t="n">
-        <v>395</v>
+        <v>161</v>
       </c>
       <c r="Y9" t="n">
-        <v>614</v>
+        <v>203</v>
       </c>
       <c r="Z9" t="n">
-        <v>2472</v>
+        <v>1019</v>
       </c>
       <c r="AA9" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>65.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>917</v>
+        <v>357</v>
       </c>
       <c r="AD9" t="n">
-        <v>1989</v>
+        <v>722</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.461</v>
+        <v>0.494</v>
       </c>
       <c r="AF9" t="n">
-        <v>276</v>
+        <v>92</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>252</t>
         </is>
       </c>
       <c r="AH9" t="n">
-        <v>0.355</v>
+        <v>0.365</v>
       </c>
       <c r="AI9" t="n">
-        <v>363</v>
+        <v>194</v>
       </c>
       <c r="AJ9" t="n">
-        <v>546</v>
+        <v>263</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.665</v>
+        <v>0.738</v>
       </c>
       <c r="AL9" t="n">
-        <v>341</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="n">
-        <v>899</v>
+        <v>315</v>
       </c>
       <c r="AN9" t="n">
-        <v>1240</v>
+        <v>435</v>
       </c>
       <c r="AO9" t="n">
-        <v>465</v>
+        <v>203</v>
       </c>
       <c r="AP9" t="n">
-        <v>238</v>
+        <v>84</v>
       </c>
       <c r="AQ9" t="n">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="AR9" t="n">
-        <v>409</v>
+        <v>107</v>
       </c>
       <c r="AS9" t="n">
-        <v>565</v>
+        <v>188</v>
       </c>
       <c r="AT9" t="n">
-        <v>2473</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1842,144 +1848,146 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Wright State</t>
+          <t>Cornell</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>West Virginia</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>Baylor</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>17</v>
+      </c>
       <c r="G10" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>72</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>1031</v>
+        <v>366</v>
       </c>
       <c r="J10" t="n">
-        <v>2077</v>
+        <v>723</v>
       </c>
       <c r="K10" t="n">
-        <v>0.496</v>
+        <v>0.506</v>
       </c>
       <c r="L10" t="n">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>335</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.357</v>
+        <v>0.337</v>
       </c>
       <c r="O10" t="n">
-        <v>370</v>
+        <v>171</v>
       </c>
       <c r="P10" t="n">
-        <v>502</v>
+        <v>238</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.737</v>
+        <v>0.718</v>
       </c>
       <c r="R10" t="n">
-        <v>304</v>
+        <v>112</v>
       </c>
       <c r="S10" t="n">
-        <v>908</v>
+        <v>327</v>
       </c>
       <c r="T10" t="n">
-        <v>1212</v>
+        <v>439</v>
       </c>
       <c r="U10" t="n">
-        <v>495</v>
+        <v>219</v>
       </c>
       <c r="V10" t="n">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="W10" t="n">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="X10" t="n">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="Y10" t="n">
-        <v>514</v>
+        <v>222</v>
       </c>
       <c r="Z10" t="n">
-        <v>2637</v>
+        <v>1016</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>69.59999999999999</v>
+        <v>70</v>
       </c>
       <c r="AC10" t="n">
-        <v>882</v>
+        <v>374</v>
       </c>
       <c r="AD10" t="n">
-        <v>1953</v>
+        <v>715</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.452</v>
+        <v>0.523</v>
       </c>
       <c r="AF10" t="n">
-        <v>248</v>
+        <v>115</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>257</t>
         </is>
       </c>
       <c r="AH10" t="n">
-        <v>0.35</v>
+        <v>0.447</v>
       </c>
       <c r="AI10" t="n">
-        <v>571</v>
+        <v>198</v>
       </c>
       <c r="AJ10" t="n">
-        <v>769</v>
+        <v>270</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.743</v>
+        <v>0.733</v>
       </c>
       <c r="AL10" t="n">
-        <v>383</v>
+        <v>147</v>
       </c>
       <c r="AM10" t="n">
-        <v>769</v>
+        <v>291</v>
       </c>
       <c r="AN10" t="n">
-        <v>1152</v>
+        <v>438</v>
       </c>
       <c r="AO10" t="n">
-        <v>442</v>
+        <v>200</v>
       </c>
       <c r="AP10" t="n">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="AQ10" t="n">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="AR10" t="n">
-        <v>440</v>
+        <v>149</v>
       </c>
       <c r="AS10" t="n">
-        <v>632</v>
+        <v>195</v>
       </c>
       <c r="AT10" t="n">
-        <v>2583</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="11">
@@ -1988,144 +1996,146 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Louisiana-Monroe</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>Creighton</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>22</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Georgetown</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>67.2</v>
+        <v>68.2</v>
       </c>
       <c r="I11" t="n">
-        <v>759</v>
+        <v>382</v>
       </c>
       <c r="J11" t="n">
-        <v>1860</v>
+        <v>772</v>
       </c>
       <c r="K11" t="n">
-        <v>0.408</v>
+        <v>0.495</v>
       </c>
       <c r="L11" t="n">
-        <v>242</v>
+        <v>144</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>384</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.351</v>
+        <v>0.375</v>
       </c>
       <c r="O11" t="n">
-        <v>397</v>
+        <v>155</v>
       </c>
       <c r="P11" t="n">
-        <v>557</v>
+        <v>205</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.713</v>
+        <v>0.756</v>
       </c>
       <c r="R11" t="n">
-        <v>345</v>
+        <v>119</v>
       </c>
       <c r="S11" t="n">
-        <v>779</v>
+        <v>396</v>
       </c>
       <c r="T11" t="n">
-        <v>1124</v>
+        <v>515</v>
       </c>
       <c r="U11" t="n">
-        <v>403</v>
+        <v>221</v>
       </c>
       <c r="V11" t="n">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="W11" t="n">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="X11" t="n">
-        <v>405</v>
+        <v>147</v>
       </c>
       <c r="Y11" t="n">
-        <v>484</v>
+        <v>138</v>
       </c>
       <c r="Z11" t="n">
-        <v>2157</v>
+        <v>1063</v>
       </c>
       <c r="AA11" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>62</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>686</v>
+        <v>324</v>
       </c>
       <c r="AD11" t="n">
-        <v>1519</v>
+        <v>753</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.452</v>
+        <v>0.43</v>
       </c>
       <c r="AF11" t="n">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>314</t>
         </is>
       </c>
       <c r="AH11" t="n">
-        <v>0.34</v>
+        <v>0.354</v>
       </c>
       <c r="AI11" t="n">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="AJ11" t="n">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.751</v>
+        <v>0.698</v>
       </c>
       <c r="AL11" t="n">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="AM11" t="n">
-        <v>748</v>
+        <v>327</v>
       </c>
       <c r="AN11" t="n">
-        <v>968</v>
+        <v>488</v>
       </c>
       <c r="AO11" t="n">
-        <v>376</v>
+        <v>176</v>
       </c>
       <c r="AP11" t="n">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="AQ11" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="AR11" t="n">
-        <v>333</v>
+        <v>185</v>
       </c>
       <c r="AS11" t="n">
-        <v>409</v>
+        <v>203</v>
       </c>
       <c r="AT11" t="n">
-        <v>1837</v>
+        <v>958</v>
       </c>
     </row>
     <row r="12">
@@ -2134,144 +2144,146 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Canisius</t>
+          <t>Iowa</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Marist</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>23</v>
+      </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>67.5</v>
+        <v>75.5</v>
       </c>
       <c r="I12" t="n">
-        <v>763</v>
+        <v>418</v>
       </c>
       <c r="J12" t="n">
-        <v>1809</v>
+        <v>873</v>
       </c>
       <c r="K12" t="n">
-        <v>0.422</v>
+        <v>0.479</v>
       </c>
       <c r="L12" t="n">
-        <v>255</v>
+        <v>91</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>273</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.333</v>
       </c>
       <c r="O12" t="n">
-        <v>328</v>
+        <v>215</v>
       </c>
       <c r="P12" t="n">
-        <v>448</v>
+        <v>287</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.732</v>
+        <v>0.749</v>
       </c>
       <c r="R12" t="n">
-        <v>313</v>
+        <v>152</v>
       </c>
       <c r="S12" t="n">
-        <v>695</v>
+        <v>361</v>
       </c>
       <c r="T12" t="n">
-        <v>1008</v>
+        <v>513</v>
       </c>
       <c r="U12" t="n">
-        <v>431</v>
+        <v>256</v>
       </c>
       <c r="V12" t="n">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="W12" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="X12" t="n">
-        <v>357</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="n">
-        <v>469</v>
+        <v>198</v>
       </c>
       <c r="Z12" t="n">
-        <v>2111</v>
+        <v>1142</v>
       </c>
       <c r="AA12" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>65.5</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>745</v>
+        <v>314</v>
       </c>
       <c r="AD12" t="n">
-        <v>1819</v>
+        <v>685</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.41</v>
+        <v>0.458</v>
       </c>
       <c r="AF12" t="n">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>228</t>
         </is>
       </c>
       <c r="AH12" t="n">
-        <v>0.328</v>
+        <v>0.329</v>
       </c>
       <c r="AI12" t="n">
-        <v>367</v>
+        <v>187</v>
       </c>
       <c r="AJ12" t="n">
-        <v>526</v>
+        <v>244</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.698</v>
+        <v>0.766</v>
       </c>
       <c r="AL12" t="n">
-        <v>294</v>
+        <v>132</v>
       </c>
       <c r="AM12" t="n">
-        <v>837</v>
+        <v>282</v>
       </c>
       <c r="AN12" t="n">
-        <v>1131</v>
+        <v>414</v>
       </c>
       <c r="AO12" t="n">
-        <v>357</v>
+        <v>137</v>
       </c>
       <c r="AP12" t="n">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="AQ12" t="n">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>392</v>
+        <v>118</v>
       </c>
       <c r="AS12" t="n">
-        <v>509</v>
+        <v>181</v>
       </c>
       <c r="AT12" t="n">
-        <v>2110</v>
+        <v>890</v>
       </c>
     </row>
     <row r="13">
@@ -2280,144 +2292,144 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Maryland-Eastern Shore</t>
+          <t>Kennesaw State</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Marist</t>
+          <t>Mercer</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>71.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="I13" t="n">
-        <v>776</v>
+        <v>421</v>
       </c>
       <c r="J13" t="n">
-        <v>1812</v>
+        <v>956</v>
       </c>
       <c r="K13" t="n">
-        <v>0.428</v>
+        <v>0.44</v>
       </c>
       <c r="L13" t="n">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>431</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.318</v>
+        <v>0.325</v>
       </c>
       <c r="O13" t="n">
-        <v>381</v>
+        <v>215</v>
       </c>
       <c r="P13" t="n">
-        <v>530</v>
+        <v>321</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.719</v>
+        <v>0.67</v>
       </c>
       <c r="R13" t="n">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="S13" t="n">
-        <v>683</v>
+        <v>392</v>
       </c>
       <c r="T13" t="n">
-        <v>988</v>
+        <v>578</v>
       </c>
       <c r="U13" t="n">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="V13" t="n">
-        <v>345</v>
+        <v>120</v>
       </c>
       <c r="W13" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="X13" t="n">
-        <v>454</v>
+        <v>172</v>
       </c>
       <c r="Y13" t="n">
-        <v>515</v>
+        <v>281</v>
       </c>
       <c r="Z13" t="n">
-        <v>2162</v>
+        <v>1197</v>
       </c>
       <c r="AA13" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>65.5</v>
+        <v>67.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>745</v>
+        <v>336</v>
       </c>
       <c r="AD13" t="n">
-        <v>1819</v>
+        <v>748</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.41</v>
+        <v>0.449</v>
       </c>
       <c r="AF13" t="n">
-        <v>253</v>
+        <v>86</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>255</t>
         </is>
       </c>
       <c r="AH13" t="n">
-        <v>0.328</v>
+        <v>0.337</v>
       </c>
       <c r="AI13" t="n">
-        <v>367</v>
+        <v>152</v>
       </c>
       <c r="AJ13" t="n">
-        <v>526</v>
+        <v>233</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.698</v>
+        <v>0.652</v>
       </c>
       <c r="AL13" t="n">
-        <v>294</v>
+        <v>141</v>
       </c>
       <c r="AM13" t="n">
-        <v>837</v>
+        <v>300</v>
       </c>
       <c r="AN13" t="n">
-        <v>1131</v>
+        <v>441</v>
       </c>
       <c r="AO13" t="n">
-        <v>357</v>
+        <v>171</v>
       </c>
       <c r="AP13" t="n">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="AQ13" t="n">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="AR13" t="n">
-        <v>392</v>
+        <v>155</v>
       </c>
       <c r="AS13" t="n">
-        <v>509</v>
+        <v>267</v>
       </c>
       <c r="AT13" t="n">
-        <v>2110</v>
+        <v>910</v>
       </c>
     </row>
     <row r="14">
@@ -2426,144 +2438,144 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Texas State</t>
+          <t>Rutgers</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Florida International</t>
+          <t>Purdue</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>64.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="I14" t="n">
-        <v>848</v>
+        <v>280</v>
       </c>
       <c r="J14" t="n">
-        <v>1918</v>
+        <v>705</v>
       </c>
       <c r="K14" t="n">
-        <v>0.442</v>
+        <v>0.397</v>
       </c>
       <c r="L14" t="n">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>246</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.307</v>
+        <v>0.293</v>
       </c>
       <c r="O14" t="n">
-        <v>459</v>
+        <v>178</v>
       </c>
       <c r="P14" t="n">
-        <v>630</v>
+        <v>275</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.729</v>
+        <v>0.647</v>
       </c>
       <c r="R14" t="n">
-        <v>359</v>
+        <v>145</v>
       </c>
       <c r="S14" t="n">
-        <v>784</v>
+        <v>305</v>
       </c>
       <c r="T14" t="n">
-        <v>1143</v>
+        <v>450</v>
       </c>
       <c r="U14" t="n">
-        <v>346</v>
+        <v>151</v>
       </c>
       <c r="V14" t="n">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="W14" t="n">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="X14" t="n">
-        <v>411</v>
+        <v>130</v>
       </c>
       <c r="Y14" t="n">
-        <v>630</v>
+        <v>195</v>
       </c>
       <c r="Z14" t="n">
-        <v>2309</v>
+        <v>810</v>
       </c>
       <c r="AA14" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC14" t="n">
-        <v>867</v>
+        <v>392</v>
       </c>
       <c r="AD14" t="n">
-        <v>1861</v>
+        <v>786</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.466</v>
+        <v>0.499</v>
       </c>
       <c r="AF14" t="n">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>281</t>
         </is>
       </c>
       <c r="AH14" t="n">
-        <v>0.326</v>
+        <v>0.384</v>
       </c>
       <c r="AI14" t="n">
+        <v>236</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>330</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AM14" t="n">
         <v>386</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>541</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>275</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>733</v>
-      </c>
       <c r="AN14" t="n">
-        <v>1008</v>
+        <v>537</v>
       </c>
       <c r="AO14" t="n">
-        <v>397</v>
+        <v>247</v>
       </c>
       <c r="AP14" t="n">
-        <v>290</v>
+        <v>86</v>
       </c>
       <c r="AQ14" t="n">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="AR14" t="n">
-        <v>473</v>
+        <v>155</v>
       </c>
       <c r="AS14" t="n">
-        <v>547</v>
+        <v>181</v>
       </c>
       <c r="AT14" t="n">
-        <v>2339</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="15">
@@ -2572,144 +2584,144 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tarleton State</t>
+          <t>George Mason</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>New Orleans</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>69.09999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="I15" t="n">
-        <v>847</v>
+        <v>342</v>
       </c>
       <c r="J15" t="n">
-        <v>1868</v>
+        <v>714</v>
       </c>
       <c r="K15" t="n">
-        <v>0.453</v>
+        <v>0.479</v>
       </c>
       <c r="L15" t="n">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>265</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.342</v>
+        <v>0.37</v>
       </c>
       <c r="O15" t="n">
-        <v>589</v>
+        <v>197</v>
       </c>
       <c r="P15" t="n">
-        <v>837</v>
+        <v>269</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.704</v>
+        <v>0.732</v>
       </c>
       <c r="R15" t="n">
-        <v>325</v>
+        <v>134</v>
       </c>
       <c r="S15" t="n">
-        <v>752</v>
+        <v>374</v>
       </c>
       <c r="T15" t="n">
-        <v>1077</v>
+        <v>508</v>
       </c>
       <c r="U15" t="n">
-        <v>437</v>
+        <v>161</v>
       </c>
       <c r="V15" t="n">
-        <v>330</v>
+        <v>67</v>
       </c>
       <c r="W15" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="X15" t="n">
-        <v>424</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="n">
-        <v>694</v>
+        <v>215</v>
       </c>
       <c r="Z15" t="n">
-        <v>2446</v>
+        <v>979</v>
       </c>
       <c r="AA15" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AB15" t="n">
-        <v>72.5</v>
+        <v>68.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>833</v>
+        <v>356</v>
       </c>
       <c r="AD15" t="n">
-        <v>1785</v>
+        <v>747</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.467</v>
+        <v>0.477</v>
       </c>
       <c r="AF15" t="n">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>223</t>
         </is>
       </c>
       <c r="AH15" t="n">
-        <v>0.378</v>
+        <v>0.345</v>
       </c>
       <c r="AI15" t="n">
-        <v>478</v>
+        <v>157</v>
       </c>
       <c r="AJ15" t="n">
-        <v>674</v>
+        <v>259</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.709</v>
+        <v>0.606</v>
       </c>
       <c r="AL15" t="n">
-        <v>309</v>
+        <v>154</v>
       </c>
       <c r="AM15" t="n">
-        <v>723</v>
+        <v>351</v>
       </c>
       <c r="AN15" t="n">
-        <v>1032</v>
+        <v>505</v>
       </c>
       <c r="AO15" t="n">
-        <v>466</v>
+        <v>175</v>
       </c>
       <c r="AP15" t="n">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="AQ15" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="AR15" t="n">
-        <v>547</v>
+        <v>173</v>
       </c>
       <c r="AS15" t="n">
-        <v>619</v>
+        <v>195</v>
       </c>
       <c r="AT15" t="n">
-        <v>2340</v>
+        <v>946</v>
       </c>
     </row>
     <row r="16">
@@ -2718,144 +2730,144 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Murray State</t>
+          <t>North Texas</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Western Carolina</t>
+          <t>Temple</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>66.90000000000001</v>
+        <v>63.3</v>
       </c>
       <c r="I16" t="n">
-        <v>805</v>
+        <v>289</v>
       </c>
       <c r="J16" t="n">
-        <v>1824</v>
+        <v>664</v>
       </c>
       <c r="K16" t="n">
-        <v>0.441</v>
+        <v>0.435</v>
       </c>
       <c r="L16" t="n">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>272</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.332</v>
+        <v>0.368</v>
       </c>
       <c r="O16" t="n">
-        <v>447</v>
+        <v>152</v>
       </c>
       <c r="P16" t="n">
-        <v>607</v>
+        <v>198</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.736</v>
+        <v>0.768</v>
       </c>
       <c r="R16" t="n">
-        <v>301</v>
+        <v>139</v>
       </c>
       <c r="S16" t="n">
-        <v>810</v>
+        <v>297</v>
       </c>
       <c r="T16" t="n">
-        <v>1111</v>
+        <v>436</v>
       </c>
       <c r="U16" t="n">
-        <v>391</v>
+        <v>128</v>
       </c>
       <c r="V16" t="n">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="W16" t="n">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="X16" t="n">
-        <v>349</v>
+        <v>148</v>
       </c>
       <c r="Y16" t="n">
-        <v>467</v>
+        <v>203</v>
       </c>
       <c r="Z16" t="n">
-        <v>2254</v>
+        <v>830</v>
       </c>
       <c r="AA16" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AB16" t="n">
-        <v>68.3</v>
+        <v>70.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>871</v>
+        <v>319</v>
       </c>
       <c r="AD16" t="n">
-        <v>2015</v>
+        <v>834</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.432</v>
+        <v>0.382</v>
       </c>
       <c r="AF16" t="n">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>370</t>
         </is>
       </c>
       <c r="AH16" t="n">
-        <v>0.34</v>
+        <v>0.305</v>
       </c>
       <c r="AI16" t="n">
-        <v>482</v>
+        <v>210</v>
       </c>
       <c r="AJ16" t="n">
-        <v>674</v>
+        <v>286</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.715</v>
+        <v>0.734</v>
       </c>
       <c r="AL16" t="n">
-        <v>335</v>
+        <v>165</v>
       </c>
       <c r="AM16" t="n">
-        <v>921</v>
+        <v>341</v>
       </c>
       <c r="AN16" t="n">
-        <v>1256</v>
+        <v>506</v>
       </c>
       <c r="AO16" t="n">
-        <v>428</v>
+        <v>151</v>
       </c>
       <c r="AP16" t="n">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="AQ16" t="n">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AR16" t="n">
-        <v>365</v>
+        <v>133</v>
       </c>
       <c r="AS16" t="n">
-        <v>588</v>
+        <v>216</v>
       </c>
       <c r="AT16" t="n">
-        <v>2513</v>
+        <v>961</v>
       </c>
     </row>
     <row r="17">
@@ -2864,144 +2876,144 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Murray State</t>
+          <t>Illinois State</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Little Rock</t>
+          <t>Drake</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H17" t="n">
-        <v>66.90000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>805</v>
+        <v>306</v>
       </c>
       <c r="J17" t="n">
-        <v>1824</v>
+        <v>740</v>
       </c>
       <c r="K17" t="n">
-        <v>0.441</v>
+        <v>0.414</v>
       </c>
       <c r="L17" t="n">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>299</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.332</v>
+        <v>0.281</v>
       </c>
       <c r="O17" t="n">
-        <v>447</v>
+        <v>196</v>
       </c>
       <c r="P17" t="n">
-        <v>607</v>
+        <v>283</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.736</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R17" t="n">
-        <v>301</v>
+        <v>154</v>
       </c>
       <c r="S17" t="n">
-        <v>810</v>
+        <v>336</v>
       </c>
       <c r="T17" t="n">
-        <v>1111</v>
+        <v>490</v>
       </c>
       <c r="U17" t="n">
-        <v>391</v>
+        <v>153</v>
       </c>
       <c r="V17" t="n">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="W17" t="n">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="X17" t="n">
-        <v>349</v>
+        <v>164</v>
       </c>
       <c r="Y17" t="n">
-        <v>467</v>
+        <v>211</v>
       </c>
       <c r="Z17" t="n">
-        <v>2254</v>
+        <v>892</v>
       </c>
       <c r="AA17" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>72.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>845</v>
+        <v>361</v>
       </c>
       <c r="AD17" t="n">
-        <v>1907</v>
+        <v>773</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.443</v>
+        <v>0.467</v>
       </c>
       <c r="AF17" t="n">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>323</t>
         </is>
       </c>
       <c r="AH17" t="n">
-        <v>0.326</v>
+        <v>0.331</v>
       </c>
       <c r="AI17" t="n">
-        <v>462</v>
+        <v>194</v>
       </c>
       <c r="AJ17" t="n">
-        <v>632</v>
+        <v>246</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.731</v>
+        <v>0.789</v>
       </c>
       <c r="AL17" t="n">
-        <v>339</v>
+        <v>122</v>
       </c>
       <c r="AM17" t="n">
-        <v>768</v>
+        <v>331</v>
       </c>
       <c r="AN17" t="n">
-        <v>1107</v>
+        <v>453</v>
       </c>
       <c r="AO17" t="n">
-        <v>460</v>
+        <v>211</v>
       </c>
       <c r="AP17" t="n">
+        <v>90</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>132</v>
+      </c>
+      <c r="AS17" t="n">
         <v>209</v>
       </c>
-      <c r="AQ17" t="n">
-        <v>72</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>418</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>609</v>
-      </c>
       <c r="AT17" t="n">
-        <v>2337</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="18">
@@ -3010,144 +3022,144 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>North Carolina Central</t>
+          <t>Akron</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>UNC Asheville</t>
+          <t>Northern Illinois</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>70.2</v>
+        <v>67.8</v>
       </c>
       <c r="I18" t="n">
-        <v>815</v>
+        <v>323</v>
       </c>
       <c r="J18" t="n">
-        <v>1737</v>
+        <v>687</v>
       </c>
       <c r="K18" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L18" t="n">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>314</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.36</v>
+        <v>0.357</v>
       </c>
       <c r="O18" t="n">
-        <v>417</v>
+        <v>164</v>
       </c>
       <c r="P18" t="n">
-        <v>594</v>
+        <v>229</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.702</v>
+        <v>0.716</v>
       </c>
       <c r="R18" t="n">
-        <v>328</v>
+        <v>130</v>
       </c>
       <c r="S18" t="n">
-        <v>745</v>
+        <v>308</v>
       </c>
       <c r="T18" t="n">
-        <v>1073</v>
+        <v>438</v>
       </c>
       <c r="U18" t="n">
-        <v>439</v>
+        <v>183</v>
       </c>
       <c r="V18" t="n">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="W18" t="n">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="X18" t="n">
-        <v>459</v>
+        <v>158</v>
       </c>
       <c r="Y18" t="n">
-        <v>575</v>
+        <v>183</v>
       </c>
       <c r="Z18" t="n">
-        <v>2268</v>
+        <v>922</v>
       </c>
       <c r="AA18" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AB18" t="n">
-        <v>69.3</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>897</v>
+        <v>339</v>
       </c>
       <c r="AD18" t="n">
-        <v>1890</v>
+        <v>711</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.475</v>
+        <v>0.477</v>
       </c>
       <c r="AF18" t="n">
-        <v>274</v>
+        <v>91</v>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>260</t>
         </is>
       </c>
       <c r="AH18" t="n">
-        <v>0.388</v>
+        <v>0.35</v>
       </c>
       <c r="AI18" t="n">
-        <v>536</v>
+        <v>190</v>
       </c>
       <c r="AJ18" t="n">
-        <v>772</v>
+        <v>293</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.694</v>
+        <v>0.648</v>
       </c>
       <c r="AL18" t="n">
-        <v>295</v>
+        <v>119</v>
       </c>
       <c r="AM18" t="n">
-        <v>924</v>
+        <v>333</v>
       </c>
       <c r="AN18" t="n">
-        <v>1219</v>
+        <v>452</v>
       </c>
       <c r="AO18" t="n">
-        <v>446</v>
+        <v>138</v>
       </c>
       <c r="AP18" t="n">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AQ18" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AR18" t="n">
-        <v>496</v>
+        <v>157</v>
       </c>
       <c r="AS18" t="n">
-        <v>542</v>
+        <v>200</v>
       </c>
       <c r="AT18" t="n">
-        <v>2604</v>
+        <v>959</v>
       </c>
     </row>
     <row r="19">
@@ -3156,144 +3168,144 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>South Carolina State</t>
+          <t>Belmont</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>UNC Asheville</t>
+          <t>Southern Illinois</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H19" t="n">
-        <v>73.7</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>838</v>
+        <v>385</v>
       </c>
       <c r="J19" t="n">
-        <v>1980</v>
+        <v>778</v>
       </c>
       <c r="K19" t="n">
-        <v>0.423</v>
+        <v>0.495</v>
       </c>
       <c r="L19" t="n">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>296</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.317</v>
+        <v>0.375</v>
       </c>
       <c r="O19" t="n">
-        <v>385</v>
+        <v>173</v>
       </c>
       <c r="P19" t="n">
-        <v>575</v>
+        <v>249</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.67</v>
+        <v>0.695</v>
       </c>
       <c r="R19" t="n">
-        <v>429</v>
+        <v>104</v>
       </c>
       <c r="S19" t="n">
-        <v>668</v>
+        <v>343</v>
       </c>
       <c r="T19" t="n">
-        <v>1097</v>
+        <v>447</v>
       </c>
       <c r="U19" t="n">
-        <v>435</v>
+        <v>196</v>
       </c>
       <c r="V19" t="n">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="W19" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="X19" t="n">
-        <v>486</v>
+        <v>175</v>
       </c>
       <c r="Y19" t="n">
-        <v>637</v>
+        <v>202</v>
       </c>
       <c r="Z19" t="n">
-        <v>2274</v>
+        <v>1054</v>
       </c>
       <c r="AA19" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="AB19" t="n">
-        <v>69.3</v>
+        <v>66</v>
       </c>
       <c r="AC19" t="n">
-        <v>897</v>
+        <v>336</v>
       </c>
       <c r="AD19" t="n">
-        <v>1890</v>
+        <v>704</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.475</v>
+        <v>0.477</v>
       </c>
       <c r="AF19" t="n">
-        <v>274</v>
+        <v>112</v>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>284</t>
         </is>
       </c>
       <c r="AH19" t="n">
-        <v>0.388</v>
+        <v>0.394</v>
       </c>
       <c r="AI19" t="n">
-        <v>536</v>
+        <v>197</v>
       </c>
       <c r="AJ19" t="n">
-        <v>772</v>
+        <v>267</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.694</v>
+        <v>0.738</v>
       </c>
       <c r="AL19" t="n">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="AM19" t="n">
-        <v>924</v>
+        <v>321</v>
       </c>
       <c r="AN19" t="n">
-        <v>1219</v>
+        <v>431</v>
       </c>
       <c r="AO19" t="n">
-        <v>446</v>
+        <v>195</v>
       </c>
       <c r="AP19" t="n">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="AQ19" t="n">
+        <v>47</v>
+      </c>
+      <c r="AR19" t="n">
         <v>140</v>
       </c>
-      <c r="AR19" t="n">
-        <v>496</v>
-      </c>
       <c r="AS19" t="n">
-        <v>542</v>
+        <v>233</v>
       </c>
       <c r="AT19" t="n">
-        <v>2604</v>
+        <v>981</v>
       </c>
     </row>
     <row r="20">
@@ -3302,7 +3314,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3313,133 +3325,133 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cal State Northridge</t>
+          <t>Wyoming</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H20" t="n">
-        <v>63.2</v>
+        <v>68.2</v>
       </c>
       <c r="I20" t="n">
-        <v>869</v>
+        <v>363</v>
       </c>
       <c r="J20" t="n">
-        <v>1996</v>
+        <v>770</v>
       </c>
       <c r="K20" t="n">
-        <v>0.435</v>
+        <v>0.471</v>
       </c>
       <c r="L20" t="n">
-        <v>265</v>
+        <v>115</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>327</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.326</v>
+        <v>0.352</v>
       </c>
       <c r="O20" t="n">
-        <v>359</v>
+        <v>143</v>
       </c>
       <c r="P20" t="n">
-        <v>529</v>
+        <v>212</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.679</v>
+        <v>0.675</v>
       </c>
       <c r="R20" t="n">
-        <v>423</v>
+        <v>109</v>
       </c>
       <c r="S20" t="n">
-        <v>912</v>
+        <v>328</v>
       </c>
       <c r="T20" t="n">
-        <v>1335</v>
+        <v>437</v>
       </c>
       <c r="U20" t="n">
-        <v>428</v>
+        <v>189</v>
       </c>
       <c r="V20" t="n">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="W20" t="n">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="X20" t="n">
-        <v>416</v>
+        <v>139</v>
       </c>
       <c r="Y20" t="n">
-        <v>545</v>
+        <v>217</v>
       </c>
       <c r="Z20" t="n">
-        <v>2362</v>
+        <v>984</v>
       </c>
       <c r="AA20" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="n">
-        <v>65.7</v>
+        <v>70.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>695</v>
+        <v>326</v>
       </c>
       <c r="AD20" t="n">
-        <v>1735</v>
+        <v>708</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.401</v>
+        <v>0.46</v>
       </c>
       <c r="AF20" t="n">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>240</t>
         </is>
       </c>
       <c r="AH20" t="n">
-        <v>0.32</v>
+        <v>0.408</v>
       </c>
       <c r="AI20" t="n">
-        <v>454</v>
+        <v>223</v>
       </c>
       <c r="AJ20" t="n">
-        <v>612</v>
+        <v>300</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="AL20" t="n">
-        <v>313</v>
+        <v>134</v>
       </c>
       <c r="AM20" t="n">
-        <v>753</v>
+        <v>308</v>
       </c>
       <c r="AN20" t="n">
-        <v>1066</v>
+        <v>442</v>
       </c>
       <c r="AO20" t="n">
-        <v>314</v>
+        <v>158</v>
       </c>
       <c r="AP20" t="n">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="AQ20" t="n">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="AR20" t="n">
-        <v>400</v>
+        <v>198</v>
       </c>
       <c r="AS20" t="n">
-        <v>605</v>
+        <v>207</v>
       </c>
       <c r="AT20" t="n">
-        <v>2028</v>
+        <v>973</v>
       </c>
     </row>
     <row r="21">
@@ -3448,144 +3460,144 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Northern Arizona</t>
+          <t>Utah State</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pepperdine</t>
+          <t>Air Force</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
-        <v>68</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>930</v>
+        <v>391</v>
       </c>
       <c r="J21" t="n">
-        <v>2123</v>
+        <v>787</v>
       </c>
       <c r="K21" t="n">
-        <v>0.438</v>
+        <v>0.497</v>
       </c>
       <c r="L21" t="n">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>250</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.362</v>
+        <v>0.32</v>
       </c>
       <c r="O21" t="n">
-        <v>426</v>
+        <v>195</v>
       </c>
       <c r="P21" t="n">
-        <v>576</v>
+        <v>283</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.74</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R21" t="n">
-        <v>354</v>
+        <v>142</v>
       </c>
       <c r="S21" t="n">
-        <v>835</v>
+        <v>359</v>
       </c>
       <c r="T21" t="n">
-        <v>1189</v>
+        <v>501</v>
       </c>
       <c r="U21" t="n">
-        <v>484</v>
+        <v>231</v>
       </c>
       <c r="V21" t="n">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="W21" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X21" t="n">
-        <v>378</v>
+        <v>151</v>
       </c>
       <c r="Y21" t="n">
-        <v>649</v>
+        <v>221</v>
       </c>
       <c r="Z21" t="n">
-        <v>2581</v>
+        <v>1057</v>
       </c>
       <c r="AA21" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AB21" t="n">
-        <v>73.90000000000001</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>898</v>
+        <v>289</v>
       </c>
       <c r="AD21" t="n">
-        <v>1930</v>
+        <v>626</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.465</v>
+        <v>0.462</v>
       </c>
       <c r="AF21" t="n">
-        <v>253</v>
+        <v>103</v>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>286</t>
         </is>
       </c>
       <c r="AH21" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="AI21" t="n">
-        <v>368</v>
+        <v>149</v>
       </c>
       <c r="AJ21" t="n">
-        <v>518</v>
+        <v>219</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AL21" t="n">
-        <v>286</v>
+        <v>84</v>
       </c>
       <c r="AM21" t="n">
-        <v>823</v>
+        <v>296</v>
       </c>
       <c r="AN21" t="n">
-        <v>1109</v>
+        <v>380</v>
       </c>
       <c r="AO21" t="n">
-        <v>469</v>
+        <v>187</v>
       </c>
       <c r="AP21" t="n">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="AQ21" t="n">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="AR21" t="n">
-        <v>436</v>
+        <v>151</v>
       </c>
       <c r="AS21" t="n">
-        <v>548</v>
+        <v>200</v>
       </c>
       <c r="AT21" t="n">
-        <v>2417</v>
+        <v>830</v>
       </c>
     </row>
     <row r="22">
@@ -3594,144 +3606,144 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Detroit Mercy</t>
+          <t>UTSA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bellarmine</t>
+          <t>East Carolina</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
+        <v>13</v>
+      </c>
+      <c r="H22" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="I22" t="n">
+        <v>345</v>
+      </c>
+      <c r="J22" t="n">
+        <v>827</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="L22" t="n">
+        <v>127</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="O22" t="n">
+        <v>206</v>
+      </c>
+      <c r="P22" t="n">
+        <v>295</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="R22" t="n">
+        <v>166</v>
+      </c>
+      <c r="S22" t="n">
+        <v>362</v>
+      </c>
+      <c r="T22" t="n">
+        <v>528</v>
+      </c>
+      <c r="U22" t="n">
+        <v>188</v>
+      </c>
+      <c r="V22" t="n">
+        <v>63</v>
+      </c>
+      <c r="W22" t="n">
+        <v>67</v>
+      </c>
+      <c r="X22" t="n">
+        <v>151</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>247</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1023</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>329</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>756</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>88</v>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>218</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>314</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>173</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>306</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>479</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>162</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>109</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>33</v>
       </c>
-      <c r="H22" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="I22" t="n">
-        <v>876</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2024</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="L22" t="n">
-        <v>338</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>875</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>0.386</v>
-      </c>
-      <c r="O22" t="n">
-        <v>437</v>
-      </c>
-      <c r="P22" t="n">
-        <v>569</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="R22" t="n">
-        <v>433</v>
-      </c>
-      <c r="S22" t="n">
-        <v>779</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1212</v>
-      </c>
-      <c r="U22" t="n">
-        <v>413</v>
-      </c>
-      <c r="V22" t="n">
-        <v>202</v>
-      </c>
-      <c r="W22" t="n">
-        <v>64</v>
-      </c>
-      <c r="X22" t="n">
-        <v>390</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>529</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>2527</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>33</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>797</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>1738</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0.459</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>264</v>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>752</t>
-        </is>
-      </c>
-      <c r="AH22" t="n">
-        <v>0.351</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>329</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>436</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0.755</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>217</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>743</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>960</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>467</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>184</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>45</v>
-      </c>
       <c r="AR22" t="n">
-        <v>368</v>
+        <v>143</v>
       </c>
       <c r="AS22" t="n">
-        <v>522</v>
+        <v>219</v>
       </c>
       <c r="AT22" t="n">
-        <v>2187</v>
+        <v>964</v>
       </c>
     </row>
     <row r="23">
@@ -3740,144 +3752,144 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Detroit Mercy</t>
+          <t>Davidson</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Loyola Marymount</t>
+          <t>La Salle</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H23" t="n">
-        <v>67.8</v>
+        <v>65.8</v>
       </c>
       <c r="I23" t="n">
-        <v>876</v>
+        <v>326</v>
       </c>
       <c r="J23" t="n">
-        <v>2024</v>
+        <v>727</v>
       </c>
       <c r="K23" t="n">
-        <v>0.433</v>
+        <v>0.448</v>
       </c>
       <c r="L23" t="n">
-        <v>338</v>
+        <v>108</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>330</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.386</v>
+        <v>0.327</v>
       </c>
       <c r="O23" t="n">
-        <v>437</v>
+        <v>187</v>
       </c>
       <c r="P23" t="n">
-        <v>569</v>
+        <v>258</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.768</v>
+        <v>0.725</v>
       </c>
       <c r="R23" t="n">
-        <v>433</v>
+        <v>127</v>
       </c>
       <c r="S23" t="n">
-        <v>779</v>
+        <v>331</v>
       </c>
       <c r="T23" t="n">
-        <v>1212</v>
+        <v>458</v>
       </c>
       <c r="U23" t="n">
-        <v>413</v>
+        <v>171</v>
       </c>
       <c r="V23" t="n">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="W23" t="n">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="X23" t="n">
-        <v>390</v>
+        <v>133</v>
       </c>
       <c r="Y23" t="n">
-        <v>529</v>
+        <v>179</v>
       </c>
       <c r="Z23" t="n">
-        <v>2527</v>
+        <v>947</v>
       </c>
       <c r="AA23" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="AB23" t="n">
-        <v>69.09999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>832</v>
+        <v>368</v>
       </c>
       <c r="AD23" t="n">
-        <v>1831</v>
+        <v>817</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.454</v>
+        <v>0.45</v>
       </c>
       <c r="AF23" t="n">
-        <v>289</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>337</t>
         </is>
       </c>
       <c r="AH23" t="n">
-        <v>0.365</v>
+        <v>0.356</v>
       </c>
       <c r="AI23" t="n">
-        <v>382</v>
+        <v>156</v>
       </c>
       <c r="AJ23" t="n">
-        <v>569</v>
+        <v>216</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.671</v>
+        <v>0.722</v>
       </c>
       <c r="AL23" t="n">
-        <v>328</v>
+        <v>134</v>
       </c>
       <c r="AM23" t="n">
-        <v>791</v>
+        <v>331</v>
       </c>
       <c r="AN23" t="n">
-        <v>1119</v>
+        <v>465</v>
       </c>
       <c r="AO23" t="n">
-        <v>366</v>
+        <v>208</v>
       </c>
       <c r="AP23" t="n">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="AQ23" t="n">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="AR23" t="n">
-        <v>397</v>
+        <v>127</v>
       </c>
       <c r="AS23" t="n">
-        <v>602</v>
+        <v>220</v>
       </c>
       <c r="AT23" t="n">
-        <v>2335</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="24">
@@ -3886,144 +3898,144 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Wake Forest</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Charleston Southern</t>
+          <t>Boston College</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H24" t="n">
-        <v>61.5</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>885</v>
+        <v>342</v>
       </c>
       <c r="J24" t="n">
-        <v>1871</v>
+        <v>712</v>
       </c>
       <c r="K24" t="n">
-        <v>0.473</v>
+        <v>0.48</v>
       </c>
       <c r="L24" t="n">
-        <v>291</v>
+        <v>98</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>264</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.377</v>
+        <v>0.371</v>
       </c>
       <c r="O24" t="n">
-        <v>349</v>
+        <v>194</v>
       </c>
       <c r="P24" t="n">
-        <v>465</v>
+        <v>244</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.751</v>
+        <v>0.795</v>
       </c>
       <c r="R24" t="n">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="S24" t="n">
-        <v>835</v>
+        <v>306</v>
       </c>
       <c r="T24" t="n">
-        <v>1066</v>
+        <v>412</v>
       </c>
       <c r="U24" t="n">
-        <v>469</v>
+        <v>145</v>
       </c>
       <c r="V24" t="n">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="W24" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="X24" t="n">
-        <v>382</v>
+        <v>124</v>
       </c>
       <c r="Y24" t="n">
-        <v>489</v>
+        <v>173</v>
       </c>
       <c r="Z24" t="n">
-        <v>2410</v>
+        <v>976</v>
       </c>
       <c r="AA24" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AB24" t="n">
-        <v>67.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="AC24" t="n">
-        <v>819</v>
+        <v>350</v>
       </c>
       <c r="AD24" t="n">
-        <v>1850</v>
+        <v>745</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.443</v>
+        <v>0.47</v>
       </c>
       <c r="AF24" t="n">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>257</t>
         </is>
       </c>
       <c r="AH24" t="n">
-        <v>0.343</v>
+        <v>0.354</v>
       </c>
       <c r="AI24" t="n">
-        <v>362</v>
+        <v>162</v>
       </c>
       <c r="AJ24" t="n">
-        <v>498</v>
+        <v>212</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.727</v>
+        <v>0.764</v>
       </c>
       <c r="AL24" t="n">
-        <v>360</v>
+        <v>121</v>
       </c>
       <c r="AM24" t="n">
-        <v>731</v>
+        <v>326</v>
       </c>
       <c r="AN24" t="n">
-        <v>1091</v>
+        <v>447</v>
       </c>
       <c r="AO24" t="n">
-        <v>373</v>
+        <v>175</v>
       </c>
       <c r="AP24" t="n">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="AQ24" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="AR24" t="n">
-        <v>365</v>
+        <v>120</v>
       </c>
       <c r="AS24" t="n">
-        <v>562</v>
+        <v>186</v>
       </c>
       <c r="AT24" t="n">
-        <v>2251</v>
+        <v>953</v>
       </c>
     </row>
     <row r="25">
@@ -4032,144 +4044,144 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Coastal Carolina</t>
+          <t>Eastern Michigan</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>College of Charleston</t>
+          <t>Bowling Green State</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H25" t="n">
-        <v>69.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>816</v>
+        <v>298</v>
       </c>
       <c r="J25" t="n">
-        <v>1880</v>
+        <v>661</v>
       </c>
       <c r="K25" t="n">
-        <v>0.434</v>
+        <v>0.451</v>
       </c>
       <c r="L25" t="n">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>211</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.316</v>
+        <v>0.336</v>
       </c>
       <c r="O25" t="n">
-        <v>418</v>
+        <v>140</v>
       </c>
       <c r="P25" t="n">
-        <v>533</v>
+        <v>205</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.784</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="R25" t="n">
-        <v>349</v>
+        <v>111</v>
       </c>
       <c r="S25" t="n">
-        <v>804</v>
+        <v>295</v>
       </c>
       <c r="T25" t="n">
-        <v>1153</v>
+        <v>406</v>
       </c>
       <c r="U25" t="n">
-        <v>383</v>
+        <v>129</v>
       </c>
       <c r="V25" t="n">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="W25" t="n">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="X25" t="n">
-        <v>379</v>
+        <v>150</v>
       </c>
       <c r="Y25" t="n">
-        <v>497</v>
+        <v>185</v>
       </c>
       <c r="Z25" t="n">
-        <v>2273</v>
+        <v>807</v>
       </c>
       <c r="AA25" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AB25" t="n">
-        <v>70.7</v>
+        <v>71.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>959</v>
+        <v>316</v>
       </c>
       <c r="AD25" t="n">
-        <v>2202</v>
+        <v>717</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.436</v>
+        <v>0.441</v>
       </c>
       <c r="AF25" t="n">
-        <v>348</v>
+        <v>88</v>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>286</t>
         </is>
       </c>
       <c r="AH25" t="n">
-        <v>0.331</v>
+        <v>0.308</v>
       </c>
       <c r="AI25" t="n">
-        <v>538</v>
+        <v>168</v>
       </c>
       <c r="AJ25" t="n">
-        <v>723</v>
+        <v>247</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.744</v>
+        <v>0.68</v>
       </c>
       <c r="AL25" t="n">
-        <v>472</v>
+        <v>121</v>
       </c>
       <c r="AM25" t="n">
-        <v>939</v>
+        <v>345</v>
       </c>
       <c r="AN25" t="n">
-        <v>1411</v>
+        <v>466</v>
       </c>
       <c r="AO25" t="n">
-        <v>478</v>
+        <v>133</v>
       </c>
       <c r="AP25" t="n">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="AQ25" t="n">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="AR25" t="n">
-        <v>418</v>
+        <v>143</v>
       </c>
       <c r="AS25" t="n">
-        <v>590</v>
+        <v>181</v>
       </c>
       <c r="AT25" t="n">
-        <v>2804</v>
+        <v>888</v>
       </c>
     </row>
     <row r="26">
@@ -4178,144 +4190,144 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>George Mason</t>
+          <t>Vermont</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>East Carolina</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H26" t="n">
-        <v>67.59999999999999</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>800</v>
+        <v>378</v>
       </c>
       <c r="J26" t="n">
-        <v>1774</v>
+        <v>785</v>
       </c>
       <c r="K26" t="n">
-        <v>0.451</v>
+        <v>0.482</v>
       </c>
       <c r="L26" t="n">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>367</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.35</v>
+        <v>0.373</v>
       </c>
       <c r="O26" t="n">
-        <v>428</v>
+        <v>134</v>
       </c>
       <c r="P26" t="n">
-        <v>657</v>
+        <v>200</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.651</v>
+        <v>0.67</v>
       </c>
       <c r="R26" t="n">
-        <v>302</v>
+        <v>110</v>
       </c>
       <c r="S26" t="n">
-        <v>878</v>
+        <v>366</v>
       </c>
       <c r="T26" t="n">
-        <v>1180</v>
+        <v>476</v>
       </c>
       <c r="U26" t="n">
-        <v>452</v>
+        <v>192</v>
       </c>
       <c r="V26" t="n">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="W26" t="n">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="X26" t="n">
-        <v>453</v>
+        <v>138</v>
       </c>
       <c r="Y26" t="n">
-        <v>568</v>
+        <v>201</v>
       </c>
       <c r="Z26" t="n">
-        <v>2268</v>
+        <v>1027</v>
       </c>
       <c r="AA26" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="AB26" t="n">
-        <v>68.59999999999999</v>
+        <v>69.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>769</v>
+        <v>340</v>
       </c>
       <c r="AD26" t="n">
-        <v>1896</v>
+        <v>839</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.406</v>
+        <v>0.405</v>
       </c>
       <c r="AF26" t="n">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>330</t>
         </is>
       </c>
       <c r="AH26" t="n">
-        <v>0.316</v>
+        <v>0.306</v>
       </c>
       <c r="AI26" t="n">
-        <v>484</v>
+        <v>191</v>
       </c>
       <c r="AJ26" t="n">
-        <v>704</v>
+        <v>301</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.635</v>
       </c>
       <c r="AL26" t="n">
-        <v>403</v>
+        <v>176</v>
       </c>
       <c r="AM26" t="n">
-        <v>820</v>
+        <v>370</v>
       </c>
       <c r="AN26" t="n">
-        <v>1223</v>
+        <v>546</v>
       </c>
       <c r="AO26" t="n">
-        <v>433</v>
+        <v>174</v>
       </c>
       <c r="AP26" t="n">
-        <v>214</v>
+        <v>99</v>
       </c>
       <c r="AQ26" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="AR26" t="n">
-        <v>435</v>
+        <v>184</v>
       </c>
       <c r="AS26" t="n">
-        <v>583</v>
+        <v>236</v>
       </c>
       <c r="AT26" t="n">
-        <v>2271</v>
+        <v>972</v>
       </c>
     </row>
     <row r="27">
@@ -4324,144 +4336,144 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Eastern Illinois</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Northern Illinois</t>
+          <t>Central Michigan</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H27" t="n">
-        <v>70.7</v>
+        <v>71.7</v>
       </c>
       <c r="I27" t="n">
-        <v>797</v>
+        <v>287</v>
       </c>
       <c r="J27" t="n">
-        <v>1800</v>
+        <v>702</v>
       </c>
       <c r="K27" t="n">
-        <v>0.443</v>
+        <v>0.409</v>
       </c>
       <c r="L27" t="n">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>297</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.329</v>
+        <v>0.253</v>
       </c>
       <c r="O27" t="n">
-        <v>378</v>
+        <v>158</v>
       </c>
       <c r="P27" t="n">
-        <v>593</v>
+        <v>228</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.637</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R27" t="n">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="S27" t="n">
-        <v>764</v>
+        <v>297</v>
       </c>
       <c r="T27" t="n">
-        <v>1052</v>
+        <v>441</v>
       </c>
       <c r="U27" t="n">
-        <v>449</v>
+        <v>146</v>
       </c>
       <c r="V27" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="W27" t="n">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="X27" t="n">
-        <v>419</v>
+        <v>198</v>
       </c>
       <c r="Y27" t="n">
-        <v>559</v>
+        <v>187</v>
       </c>
       <c r="Z27" t="n">
-        <v>2134</v>
+        <v>807</v>
       </c>
       <c r="AA27" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AB27" t="n">
-        <v>70.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>837</v>
+        <v>296</v>
       </c>
       <c r="AD27" t="n">
-        <v>1816</v>
+        <v>699</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.461</v>
+        <v>0.423</v>
       </c>
       <c r="AF27" t="n">
-        <v>236</v>
+        <v>73</v>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>232</t>
         </is>
       </c>
       <c r="AH27" t="n">
-        <v>0.348</v>
+        <v>0.315</v>
       </c>
       <c r="AI27" t="n">
-        <v>394</v>
+        <v>120</v>
       </c>
       <c r="AJ27" t="n">
-        <v>604</v>
+        <v>188</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.652</v>
+        <v>0.638</v>
       </c>
       <c r="AL27" t="n">
-        <v>279</v>
+        <v>129</v>
       </c>
       <c r="AM27" t="n">
-        <v>781</v>
+        <v>266</v>
       </c>
       <c r="AN27" t="n">
-        <v>1060</v>
+        <v>395</v>
       </c>
       <c r="AO27" t="n">
-        <v>402</v>
+        <v>133</v>
       </c>
       <c r="AP27" t="n">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AQ27" t="n">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="AR27" t="n">
-        <v>458</v>
+        <v>169</v>
       </c>
       <c r="AS27" t="n">
-        <v>617</v>
+        <v>196</v>
       </c>
       <c r="AT27" t="n">
-        <v>2304</v>
+        <v>785</v>
       </c>
     </row>
     <row r="28">
@@ -4470,144 +4482,144 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Omaha</t>
+          <t>Albany (NY)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Texas Southern</t>
+          <t>Harvard</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H28" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>386</v>
+      </c>
+      <c r="J28" t="n">
+        <v>870</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="L28" t="n">
+        <v>102</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O28" t="n">
+        <v>210</v>
+      </c>
+      <c r="P28" t="n">
+        <v>296</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="R28" t="n">
+        <v>164</v>
+      </c>
+      <c r="S28" t="n">
+        <v>369</v>
+      </c>
+      <c r="T28" t="n">
+        <v>533</v>
+      </c>
+      <c r="U28" t="n">
+        <v>191</v>
+      </c>
+      <c r="V28" t="n">
+        <v>123</v>
+      </c>
+      <c r="W28" t="n">
+        <v>46</v>
+      </c>
+      <c r="X28" t="n">
+        <v>207</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>263</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1084</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB28" t="n">
         <v>68.3</v>
       </c>
-      <c r="I28" t="n">
-        <v>797</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1805</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="L28" t="n">
-        <v>183</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>540</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="O28" t="n">
-        <v>415</v>
-      </c>
-      <c r="P28" t="n">
-        <v>535</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.776</v>
-      </c>
-      <c r="R28" t="n">
-        <v>259</v>
-      </c>
-      <c r="S28" t="n">
-        <v>778</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1037</v>
-      </c>
-      <c r="U28" t="n">
-        <v>380</v>
-      </c>
-      <c r="V28" t="n">
-        <v>172</v>
-      </c>
-      <c r="W28" t="n">
-        <v>92</v>
-      </c>
-      <c r="X28" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>584</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>2192</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>35</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>70.90000000000001</v>
-      </c>
       <c r="AC28" t="n">
-        <v>894</v>
+        <v>305</v>
       </c>
       <c r="AD28" t="n">
-        <v>2095</v>
+        <v>679</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.427</v>
+        <v>0.449</v>
       </c>
       <c r="AF28" t="n">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>269</t>
         </is>
       </c>
       <c r="AH28" t="n">
-        <v>0.277</v>
+        <v>0.372</v>
       </c>
       <c r="AI28" t="n">
-        <v>471</v>
+        <v>168</v>
       </c>
       <c r="AJ28" t="n">
-        <v>709</v>
+        <v>233</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.664</v>
+        <v>0.721</v>
       </c>
       <c r="AL28" t="n">
-        <v>405</v>
+        <v>103</v>
       </c>
       <c r="AM28" t="n">
-        <v>908</v>
+        <v>332</v>
       </c>
       <c r="AN28" t="n">
-        <v>1313</v>
+        <v>435</v>
       </c>
       <c r="AO28" t="n">
-        <v>412</v>
+        <v>167</v>
       </c>
       <c r="AP28" t="n">
-        <v>235</v>
+        <v>60</v>
       </c>
       <c r="AQ28" t="n">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="AR28" t="n">
-        <v>511</v>
+        <v>138</v>
       </c>
       <c r="AS28" t="n">
-        <v>657</v>
+        <v>175</v>
       </c>
       <c r="AT28" t="n">
-        <v>2422</v>
+        <v>878</v>
       </c>
     </row>
     <row r="29">
@@ -4616,144 +4628,144 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>UNC Wilmington</t>
+          <t>Ball State</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Davidson</t>
+          <t>Kent State</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H29" t="n">
-        <v>65.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>813</v>
+        <v>310</v>
       </c>
       <c r="J29" t="n">
-        <v>1832</v>
+        <v>670</v>
       </c>
       <c r="K29" t="n">
-        <v>0.444</v>
+        <v>0.463</v>
       </c>
       <c r="L29" t="n">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>243</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.335</v>
+        <v>0.379</v>
       </c>
       <c r="O29" t="n">
-        <v>508</v>
+        <v>188</v>
       </c>
       <c r="P29" t="n">
-        <v>697</v>
+        <v>257</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.729</v>
+        <v>0.732</v>
       </c>
       <c r="R29" t="n">
-        <v>324</v>
+        <v>123</v>
       </c>
       <c r="S29" t="n">
-        <v>806</v>
+        <v>304</v>
       </c>
       <c r="T29" t="n">
-        <v>1130</v>
+        <v>427</v>
       </c>
       <c r="U29" t="n">
-        <v>365</v>
+        <v>147</v>
       </c>
       <c r="V29" t="n">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="W29" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="X29" t="n">
-        <v>408</v>
+        <v>149</v>
       </c>
       <c r="Y29" t="n">
-        <v>624</v>
+        <v>164</v>
       </c>
       <c r="Z29" t="n">
-        <v>2343</v>
+        <v>900</v>
       </c>
       <c r="AA29" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AB29" t="n">
-        <v>66.09999999999999</v>
+        <v>71.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>785</v>
+        <v>326</v>
       </c>
       <c r="AD29" t="n">
-        <v>1774</v>
+        <v>723</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.443</v>
+        <v>0.451</v>
       </c>
       <c r="AF29" t="n">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>270</t>
         </is>
       </c>
       <c r="AH29" t="n">
-        <v>0.325</v>
+        <v>0.344</v>
       </c>
       <c r="AI29" t="n">
-        <v>450</v>
+        <v>214</v>
       </c>
       <c r="AJ29" t="n">
-        <v>602</v>
+        <v>276</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.748</v>
+        <v>0.775</v>
       </c>
       <c r="AL29" t="n">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="AM29" t="n">
-        <v>789</v>
+        <v>294</v>
       </c>
       <c r="AN29" t="n">
-        <v>1054</v>
+        <v>433</v>
       </c>
       <c r="AO29" t="n">
-        <v>420</v>
+        <v>160</v>
       </c>
       <c r="AP29" t="n">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="AQ29" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR29" t="n">
-        <v>347</v>
+        <v>162</v>
       </c>
       <c r="AS29" t="n">
-        <v>485</v>
+        <v>221</v>
       </c>
       <c r="AT29" t="n">
-        <v>2236</v>
+        <v>959</v>
       </c>
     </row>
     <row r="30">
@@ -4762,144 +4774,144 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Norfolk State</t>
+          <t>Western Michigan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>High Point</t>
+          <t>Miami (OH)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H30" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="I30" t="n">
-        <v>876</v>
+        <v>315</v>
       </c>
       <c r="J30" t="n">
-        <v>1854</v>
+        <v>708</v>
       </c>
       <c r="K30" t="n">
-        <v>0.472</v>
+        <v>0.445</v>
       </c>
       <c r="L30" t="n">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>279</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.339</v>
+        <v>0.348</v>
       </c>
       <c r="O30" t="n">
-        <v>524</v>
+        <v>130</v>
       </c>
       <c r="P30" t="n">
-        <v>704</v>
+        <v>214</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.744</v>
+        <v>0.607</v>
       </c>
       <c r="R30" t="n">
-        <v>362</v>
+        <v>150</v>
       </c>
       <c r="S30" t="n">
-        <v>823</v>
+        <v>293</v>
       </c>
       <c r="T30" t="n">
-        <v>1185</v>
+        <v>443</v>
       </c>
       <c r="U30" t="n">
-        <v>424</v>
+        <v>161</v>
       </c>
       <c r="V30" t="n">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="W30" t="n">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="X30" t="n">
-        <v>434</v>
+        <v>162</v>
       </c>
       <c r="Y30" t="n">
-        <v>598</v>
+        <v>197</v>
       </c>
       <c r="Z30" t="n">
-        <v>2501</v>
+        <v>857</v>
       </c>
       <c r="AA30" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AB30" t="n">
-        <v>72.7</v>
+        <v>70.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>813</v>
+        <v>309</v>
       </c>
       <c r="AD30" t="n">
-        <v>1834</v>
+        <v>669</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.443</v>
+        <v>0.462</v>
       </c>
       <c r="AF30" t="n">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>276</t>
         </is>
       </c>
       <c r="AH30" t="n">
-        <v>0.325</v>
+        <v>0.388</v>
       </c>
       <c r="AI30" t="n">
-        <v>452</v>
+        <v>173</v>
       </c>
       <c r="AJ30" t="n">
-        <v>722</v>
+        <v>249</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.626</v>
+        <v>0.695</v>
       </c>
       <c r="AL30" t="n">
-        <v>362</v>
+        <v>97</v>
       </c>
       <c r="AM30" t="n">
-        <v>817</v>
+        <v>298</v>
       </c>
       <c r="AN30" t="n">
-        <v>1179</v>
+        <v>395</v>
       </c>
       <c r="AO30" t="n">
-        <v>383</v>
+        <v>183</v>
       </c>
       <c r="AP30" t="n">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="AQ30" t="n">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="AR30" t="n">
-        <v>438</v>
+        <v>155</v>
       </c>
       <c r="AS30" t="n">
-        <v>573</v>
+        <v>215</v>
       </c>
       <c r="AT30" t="n">
-        <v>2312</v>
+        <v>898</v>
       </c>
     </row>
     <row r="31">
@@ -4908,144 +4920,144 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Quinnipiac</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Holy Cross</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
+        <v>12</v>
+      </c>
+      <c r="H31" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="I31" t="n">
+        <v>343</v>
+      </c>
+      <c r="J31" t="n">
+        <v>735</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="L31" t="n">
+        <v>75</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="O31" t="n">
+        <v>186</v>
+      </c>
+      <c r="P31" t="n">
+        <v>243</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="R31" t="n">
+        <v>128</v>
+      </c>
+      <c r="S31" t="n">
+        <v>263</v>
+      </c>
+      <c r="T31" t="n">
+        <v>391</v>
+      </c>
+      <c r="U31" t="n">
+        <v>162</v>
+      </c>
+      <c r="V31" t="n">
+        <v>94</v>
+      </c>
+      <c r="W31" t="n">
         <v>32</v>
       </c>
-      <c r="H31" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="I31" t="n">
-        <v>826</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1908</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="L31" t="n">
-        <v>263</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>725</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="O31" t="n">
-        <v>420</v>
-      </c>
-      <c r="P31" t="n">
-        <v>630</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="R31" t="n">
-        <v>365</v>
-      </c>
-      <c r="S31" t="n">
-        <v>832</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1197</v>
-      </c>
-      <c r="U31" t="n">
-        <v>419</v>
-      </c>
-      <c r="V31" t="n">
-        <v>196</v>
-      </c>
-      <c r="W31" t="n">
-        <v>82</v>
-      </c>
       <c r="X31" t="n">
-        <v>404</v>
+        <v>141</v>
       </c>
       <c r="Y31" t="n">
-        <v>525</v>
+        <v>194</v>
       </c>
       <c r="Z31" t="n">
-        <v>2335</v>
+        <v>947</v>
       </c>
       <c r="AA31" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AB31" t="n">
-        <v>69.09999999999999</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>812</v>
+        <v>342</v>
       </c>
       <c r="AD31" t="n">
-        <v>1862</v>
+        <v>761</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.436</v>
+        <v>0.449</v>
       </c>
       <c r="AF31" t="n">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>288</t>
         </is>
       </c>
       <c r="AH31" t="n">
-        <v>0.366</v>
+        <v>0.34</v>
       </c>
       <c r="AI31" t="n">
-        <v>293</v>
+        <v>170</v>
       </c>
       <c r="AJ31" t="n">
-        <v>471</v>
+        <v>241</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.622</v>
+        <v>0.705</v>
       </c>
       <c r="AL31" t="n">
-        <v>255</v>
+        <v>139</v>
       </c>
       <c r="AM31" t="n">
-        <v>785</v>
+        <v>307</v>
       </c>
       <c r="AN31" t="n">
-        <v>1040</v>
+        <v>446</v>
       </c>
       <c r="AO31" t="n">
-        <v>398</v>
+        <v>164</v>
       </c>
       <c r="AP31" t="n">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="AQ31" t="n">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="AR31" t="n">
-        <v>387</v>
+        <v>122</v>
       </c>
       <c r="AS31" t="n">
-        <v>514</v>
+        <v>225</v>
       </c>
       <c r="AT31" t="n">
-        <v>2136</v>
+        <v>952</v>
       </c>
     </row>
     <row r="32">
@@ -5054,144 +5066,144 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Quinnipiac</t>
+          <t>Tulane</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Tulsa</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H32" t="n">
-        <v>69.3</v>
+        <v>76.5</v>
       </c>
       <c r="I32" t="n">
-        <v>826</v>
+        <v>353</v>
       </c>
       <c r="J32" t="n">
-        <v>1908</v>
+        <v>691</v>
       </c>
       <c r="K32" t="n">
-        <v>0.433</v>
+        <v>0.511</v>
       </c>
       <c r="L32" t="n">
-        <v>263</v>
+        <v>92</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>266</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.363</v>
+        <v>0.346</v>
       </c>
       <c r="O32" t="n">
-        <v>420</v>
+        <v>279</v>
       </c>
       <c r="P32" t="n">
-        <v>630</v>
+        <v>373</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.667</v>
+        <v>0.748</v>
       </c>
       <c r="R32" t="n">
-        <v>365</v>
+        <v>71</v>
       </c>
       <c r="S32" t="n">
-        <v>832</v>
+        <v>326</v>
       </c>
       <c r="T32" t="n">
-        <v>1197</v>
+        <v>397</v>
       </c>
       <c r="U32" t="n">
-        <v>419</v>
+        <v>186</v>
       </c>
       <c r="V32" t="n">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="W32" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="X32" t="n">
-        <v>404</v>
+        <v>139</v>
       </c>
       <c r="Y32" t="n">
-        <v>525</v>
+        <v>195</v>
       </c>
       <c r="Z32" t="n">
-        <v>2335</v>
+        <v>1077</v>
       </c>
       <c r="AA32" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AB32" t="n">
-        <v>65.09999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>793</v>
+        <v>302</v>
       </c>
       <c r="AD32" t="n">
-        <v>1746</v>
+        <v>690</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.454</v>
+        <v>0.438</v>
       </c>
       <c r="AF32" t="n">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>273</t>
         </is>
       </c>
       <c r="AH32" t="n">
-        <v>0.334</v>
+        <v>0.326</v>
       </c>
       <c r="AI32" t="n">
-        <v>369</v>
+        <v>233</v>
       </c>
       <c r="AJ32" t="n">
-        <v>502</v>
+        <v>316</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.735</v>
+        <v>0.737</v>
       </c>
       <c r="AL32" t="n">
-        <v>339</v>
+        <v>127</v>
       </c>
       <c r="AM32" t="n">
-        <v>746</v>
+        <v>330</v>
       </c>
       <c r="AN32" t="n">
-        <v>1085</v>
+        <v>457</v>
       </c>
       <c r="AO32" t="n">
-        <v>341</v>
+        <v>149</v>
       </c>
       <c r="AP32" t="n">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="AQ32" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="AR32" t="n">
-        <v>345</v>
+        <v>171</v>
       </c>
       <c r="AS32" t="n">
-        <v>548</v>
+        <v>202</v>
       </c>
       <c r="AT32" t="n">
-        <v>2105</v>
+        <v>926</v>
       </c>
     </row>
     <row r="33">
@@ -5200,144 +5212,144 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>California Baptist</t>
+          <t>Chicago State</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Louisiana Tech</t>
+          <t>Kansas State</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H33" t="n">
-        <v>65.90000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="I33" t="n">
-        <v>811</v>
+        <v>417</v>
       </c>
       <c r="J33" t="n">
-        <v>1898</v>
+        <v>1037</v>
       </c>
       <c r="K33" t="n">
-        <v>0.427</v>
+        <v>0.402</v>
       </c>
       <c r="L33" t="n">
-        <v>276</v>
+        <v>102</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>366</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.33</v>
+        <v>0.279</v>
       </c>
       <c r="O33" t="n">
-        <v>393</v>
+        <v>288</v>
       </c>
       <c r="P33" t="n">
-        <v>592</v>
+        <v>414</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.664</v>
+        <v>0.696</v>
       </c>
       <c r="R33" t="n">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="S33" t="n">
-        <v>865</v>
+        <v>387</v>
       </c>
       <c r="T33" t="n">
-        <v>1227</v>
+        <v>607</v>
       </c>
       <c r="U33" t="n">
-        <v>471</v>
+        <v>188</v>
       </c>
       <c r="V33" t="n">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="W33" t="n">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="X33" t="n">
-        <v>379</v>
+        <v>259</v>
       </c>
       <c r="Y33" t="n">
-        <v>569</v>
+        <v>341</v>
       </c>
       <c r="Z33" t="n">
-        <v>2291</v>
+        <v>1224</v>
       </c>
       <c r="AA33" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="AB33" t="n">
-        <v>67.7</v>
+        <v>69.3</v>
       </c>
       <c r="AC33" t="n">
-        <v>854</v>
+        <v>317</v>
       </c>
       <c r="AD33" t="n">
-        <v>1930</v>
+        <v>739</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.442</v>
+        <v>0.429</v>
       </c>
       <c r="AF33" t="n">
-        <v>281</v>
+        <v>94</v>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>309</t>
         </is>
       </c>
       <c r="AH33" t="n">
-        <v>0.345</v>
+        <v>0.304</v>
       </c>
       <c r="AI33" t="n">
-        <v>394</v>
+        <v>196</v>
       </c>
       <c r="AJ33" t="n">
-        <v>546</v>
+        <v>268</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.722</v>
+        <v>0.731</v>
       </c>
       <c r="AL33" t="n">
-        <v>359</v>
+        <v>171</v>
       </c>
       <c r="AM33" t="n">
-        <v>786</v>
+        <v>315</v>
       </c>
       <c r="AN33" t="n">
-        <v>1145</v>
+        <v>486</v>
       </c>
       <c r="AO33" t="n">
-        <v>408</v>
+        <v>186</v>
       </c>
       <c r="AP33" t="n">
-        <v>260</v>
+        <v>84</v>
       </c>
       <c r="AQ33" t="n">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="AR33" t="n">
-        <v>451</v>
+        <v>175</v>
       </c>
       <c r="AS33" t="n">
-        <v>570</v>
+        <v>188</v>
       </c>
       <c r="AT33" t="n">
-        <v>2383</v>
+        <v>924</v>
       </c>
     </row>
     <row r="34">
@@ -5346,1458 +5358,144 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12-18-2023</t>
+          <t>1-2-2024</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Oakland</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Michigan State</t>
+          <t>St. John's (NY)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H34" t="n">
+        <v>70</v>
+      </c>
+      <c r="I34" t="n">
+        <v>396</v>
+      </c>
+      <c r="J34" t="n">
+        <v>836</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="L34" t="n">
+        <v>105</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="O34" t="n">
+        <v>184</v>
+      </c>
+      <c r="P34" t="n">
+        <v>238</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="R34" t="n">
+        <v>139</v>
+      </c>
+      <c r="S34" t="n">
+        <v>363</v>
+      </c>
+      <c r="T34" t="n">
+        <v>502</v>
+      </c>
+      <c r="U34" t="n">
+        <v>198</v>
+      </c>
+      <c r="V34" t="n">
+        <v>84</v>
+      </c>
+      <c r="W34" t="n">
+        <v>54</v>
+      </c>
+      <c r="X34" t="n">
+        <v>137</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>167</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1081</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>381</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>860</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="AH34" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>168</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>234</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>213</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>324</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>537</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>215</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>92</v>
+      </c>
+      <c r="AQ34" t="n">
         <v>69</v>
       </c>
-      <c r="I34" t="n">
-        <v>823</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1892</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="L34" t="n">
-        <v>232</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>753</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="O34" t="n">
-        <v>469</v>
-      </c>
-      <c r="P34" t="n">
-        <v>604</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.776</v>
-      </c>
-      <c r="R34" t="n">
-        <v>268</v>
-      </c>
-      <c r="S34" t="n">
-        <v>709</v>
-      </c>
-      <c r="T34" t="n">
-        <v>977</v>
-      </c>
-      <c r="U34" t="n">
-        <v>384</v>
-      </c>
-      <c r="V34" t="n">
-        <v>239</v>
-      </c>
-      <c r="W34" t="n">
-        <v>84</v>
-      </c>
-      <c r="X34" t="n">
-        <v>339</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>448</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>2347</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>879</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>1944</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>252</v>
-      </c>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t>642</t>
-        </is>
-      </c>
-      <c r="AH34" t="n">
-        <v>0.393</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>401</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>528</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>307</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>906</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>1213</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>497</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>160</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>102</v>
-      </c>
       <c r="AR34" t="n">
-        <v>370</v>
+        <v>157</v>
       </c>
       <c r="AS34" t="n">
-        <v>557</v>
+        <v>238</v>
       </c>
       <c r="AT34" t="n">
-        <v>2411</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>12-18-2023</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Siena</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Mount St. Mary's</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="n">
-        <v>32</v>
-      </c>
-      <c r="H35" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="I35" t="n">
-        <v>766</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1769</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="L35" t="n">
-        <v>213</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>611</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="O35" t="n">
-        <v>450</v>
-      </c>
-      <c r="P35" t="n">
-        <v>611</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.736</v>
-      </c>
-      <c r="R35" t="n">
-        <v>323</v>
-      </c>
-      <c r="S35" t="n">
-        <v>775</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1098</v>
-      </c>
-      <c r="U35" t="n">
-        <v>409</v>
-      </c>
-      <c r="V35" t="n">
-        <v>182</v>
-      </c>
-      <c r="W35" t="n">
-        <v>135</v>
-      </c>
-      <c r="X35" t="n">
-        <v>420</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>547</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>2195</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>33</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>771</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>1818</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>220</v>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>622</t>
-        </is>
-      </c>
-      <c r="AH35" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>339</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>463</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0.732</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>308</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>802</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1110</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>410</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>182</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>82</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>450</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>540</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>12-18-2023</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Cornell</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Syracuse</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="n">
-        <v>28</v>
-      </c>
-      <c r="H36" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="I36" t="n">
-        <v>816</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1738</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L36" t="n">
-        <v>300</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="O36" t="n">
-        <v>355</v>
-      </c>
-      <c r="P36" t="n">
-        <v>490</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.724</v>
-      </c>
-      <c r="R36" t="n">
-        <v>291</v>
-      </c>
-      <c r="S36" t="n">
-        <v>673</v>
-      </c>
-      <c r="T36" t="n">
-        <v>964</v>
-      </c>
-      <c r="U36" t="n">
-        <v>489</v>
-      </c>
-      <c r="V36" t="n">
-        <v>272</v>
-      </c>
-      <c r="W36" t="n">
-        <v>63</v>
-      </c>
-      <c r="X36" t="n">
-        <v>348</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>466</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>2287</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>871</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>1883</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>198</v>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>547</t>
-        </is>
-      </c>
-      <c r="AH36" t="n">
-        <v>0.362</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>432</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>577</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0.749</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>324</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>789</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>1113</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>459</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>241</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>161</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>373</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>427</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>2372</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>12-18-2023</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Northern Kentucky</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Tennessee Tech</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="n">
-        <v>35</v>
-      </c>
-      <c r="H37" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="I37" t="n">
-        <v>851</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1997</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.426</v>
-      </c>
-      <c r="L37" t="n">
-        <v>283</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>827</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="O37" t="n">
-        <v>387</v>
-      </c>
-      <c r="P37" t="n">
-        <v>556</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.696</v>
-      </c>
-      <c r="R37" t="n">
-        <v>394</v>
-      </c>
-      <c r="S37" t="n">
-        <v>742</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1136</v>
-      </c>
-      <c r="U37" t="n">
-        <v>468</v>
-      </c>
-      <c r="V37" t="n">
-        <v>329</v>
-      </c>
-      <c r="W37" t="n">
-        <v>89</v>
-      </c>
-      <c r="X37" t="n">
-        <v>395</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>535</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>2372</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>33</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>860</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>1967</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0.437</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>302</v>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>829</t>
-        </is>
-      </c>
-      <c r="AH37" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>410</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>570</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>0.719</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>310</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>849</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>1159</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>476</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>207</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>416</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>527</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>12-18-2023</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Abilene Christian</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Western Kentucky</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="n">
-        <v>30</v>
-      </c>
-      <c r="H38" t="n">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="I38" t="n">
-        <v>812</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1800</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.451</v>
-      </c>
-      <c r="L38" t="n">
-        <v>211</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>613</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="O38" t="n">
-        <v>414</v>
-      </c>
-      <c r="P38" t="n">
-        <v>573</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.723</v>
-      </c>
-      <c r="R38" t="n">
-        <v>307</v>
-      </c>
-      <c r="S38" t="n">
-        <v>665</v>
-      </c>
-      <c r="T38" t="n">
-        <v>972</v>
-      </c>
-      <c r="U38" t="n">
-        <v>471</v>
-      </c>
-      <c r="V38" t="n">
-        <v>264</v>
-      </c>
-      <c r="W38" t="n">
-        <v>71</v>
-      </c>
-      <c r="X38" t="n">
-        <v>379</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>617</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>2249</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>33</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>839</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>1907</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>249</v>
-      </c>
-      <c r="AG38" t="inlineStr">
-        <is>
-          <t>695</t>
-        </is>
-      </c>
-      <c r="AH38" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>428</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>601</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>0.712</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>300</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>852</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>1152</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>416</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>204</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>173</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>383</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>489</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>12-18-2023</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Texas-Rio Grande Valley</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Chicago State</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="n">
-        <v>32</v>
-      </c>
-      <c r="H39" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="I39" t="n">
-        <v>868</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1852</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="L39" t="n">
-        <v>222</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>655</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="O39" t="n">
-        <v>560</v>
-      </c>
-      <c r="P39" t="n">
-        <v>802</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.698</v>
-      </c>
-      <c r="R39" t="n">
-        <v>345</v>
-      </c>
-      <c r="S39" t="n">
-        <v>866</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1211</v>
-      </c>
-      <c r="U39" t="n">
-        <v>505</v>
-      </c>
-      <c r="V39" t="n">
-        <v>151</v>
-      </c>
-      <c r="W39" t="n">
-        <v>104</v>
-      </c>
-      <c r="X39" t="n">
-        <v>514</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>641</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>2518</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>31</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>760</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>1757</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>256</v>
-      </c>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>755</t>
-        </is>
-      </c>
-      <c r="AH39" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>404</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>555</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0.728</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>365</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>725</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>1090</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>379</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>175</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>83</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>422</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>561</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>12-18-2023</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Jacksonville State</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Tarleton State</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
-        <v>31</v>
-      </c>
-      <c r="H40" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="I40" t="n">
-        <v>747</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1705</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="L40" t="n">
-        <v>281</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>747</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
-        <v>0.376</v>
-      </c>
-      <c r="O40" t="n">
-        <v>391</v>
-      </c>
-      <c r="P40" t="n">
-        <v>559</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.699</v>
-      </c>
-      <c r="R40" t="n">
-        <v>318</v>
-      </c>
-      <c r="S40" t="n">
-        <v>799</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1117</v>
-      </c>
-      <c r="U40" t="n">
-        <v>381</v>
-      </c>
-      <c r="V40" t="n">
-        <v>172</v>
-      </c>
-      <c r="W40" t="n">
-        <v>74</v>
-      </c>
-      <c r="X40" t="n">
-        <v>410</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>510</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>2166</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>847</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>1868</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>163</v>
-      </c>
-      <c r="AG40" t="inlineStr">
-        <is>
-          <t>477</t>
-        </is>
-      </c>
-      <c r="AH40" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>589</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>837</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0.704</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>325</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>752</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1077</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>437</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>330</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>96</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>424</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>694</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>12-18-2023</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Mississippi Valley State</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Texas A&amp;M</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="n">
-        <v>32</v>
-      </c>
-      <c r="H41" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>683</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1681</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.406</v>
-      </c>
-      <c r="L41" t="n">
-        <v>162</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>464</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="O41" t="n">
-        <v>425</v>
-      </c>
-      <c r="P41" t="n">
-        <v>639</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.665</v>
-      </c>
-      <c r="R41" t="n">
-        <v>316</v>
-      </c>
-      <c r="S41" t="n">
-        <v>711</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1027</v>
-      </c>
-      <c r="U41" t="n">
-        <v>321</v>
-      </c>
-      <c r="V41" t="n">
-        <v>243</v>
-      </c>
-      <c r="W41" t="n">
-        <v>65</v>
-      </c>
-      <c r="X41" t="n">
-        <v>518</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>573</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1953</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>35</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>835</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>1932</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0.432</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>217</v>
-      </c>
-      <c r="AG41" t="inlineStr">
-        <is>
-          <t>666</t>
-        </is>
-      </c>
-      <c r="AH41" t="n">
-        <v>0.326</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>662</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>872</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>435</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>853</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>1288</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>439</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>235</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>82</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>430</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>637</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>2549</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>12-18-2023</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Eastern Washington</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Cal Poly</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="n">
-        <v>34</v>
-      </c>
-      <c r="H42" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="I42" t="n">
-        <v>931</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1901</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="L42" t="n">
-        <v>300</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>837</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="O42" t="n">
-        <v>445</v>
-      </c>
-      <c r="P42" t="n">
-        <v>589</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.756</v>
-      </c>
-      <c r="R42" t="n">
-        <v>305</v>
-      </c>
-      <c r="S42" t="n">
-        <v>917</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1222</v>
-      </c>
-      <c r="U42" t="n">
-        <v>523</v>
-      </c>
-      <c r="V42" t="n">
-        <v>176</v>
-      </c>
-      <c r="W42" t="n">
-        <v>107</v>
-      </c>
-      <c r="X42" t="n">
-        <v>461</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>591</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>2607</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>33</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>715</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>1733</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>181</v>
-      </c>
-      <c r="AG42" t="inlineStr">
-        <is>
-          <t>615</t>
-        </is>
-      </c>
-      <c r="AH42" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>395</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>531</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0.744</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>281</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>799</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>1080</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>341</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>181</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>82</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>457</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>653</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>12-18-2023</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Portland State</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Fresno State</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="n">
-        <v>31</v>
-      </c>
-      <c r="H43" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="I43" t="n">
-        <v>835</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1865</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="L43" t="n">
-        <v>234</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>688</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O43" t="n">
-        <v>459</v>
-      </c>
-      <c r="P43" t="n">
-        <v>631</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="R43" t="n">
-        <v>289</v>
-      </c>
-      <c r="S43" t="n">
-        <v>685</v>
-      </c>
-      <c r="T43" t="n">
-        <v>974</v>
-      </c>
-      <c r="U43" t="n">
-        <v>431</v>
-      </c>
-      <c r="V43" t="n">
-        <v>220</v>
-      </c>
-      <c r="W43" t="n">
-        <v>105</v>
-      </c>
-      <c r="X43" t="n">
-        <v>375</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>700</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>2363</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>31</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>64</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>720</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>1673</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>210</v>
-      </c>
-      <c r="AG43" t="inlineStr">
-        <is>
-          <t>681</t>
-        </is>
-      </c>
-      <c r="AH43" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>324</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>420</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>0.771</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>248</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>690</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>938</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>382</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>196</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>103</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>359</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>499</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>1974</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
